--- a/data/_metadata/dicts/processed_SIMAT_2004-2022.xlsx
+++ b/data/_metadata/dicts/processed_SIMAT_2004-2022.xlsx
@@ -486,6 +486,9 @@
     <t xml:space="preserve">NOMBRE2_FON</t>
   </si>
   <si>
+    <t xml:space="preserve">NRO_DOCUMENTO_ACUDIENTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUCLEO</t>
   </si>
   <si>
@@ -786,6 +789,9 @@
     <t xml:space="preserve">DIF_EDAD MARZO...65</t>
   </si>
   <si>
+    <t xml:space="preserve">DIRACUD</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIRECCION_RESIDENCIA  HOMOLOGADA</t>
   </si>
   <si>
@@ -1071,9 +1077,6 @@
     <t xml:space="preserve">NOMBRE2_ACUDIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">NRO_DOCUMENTO_ACUDIENTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">NRO_DOCUMENTO_MADRE</t>
   </si>
   <si>
@@ -1219,9 +1222,6 @@
   </si>
   <si>
     <t xml:space="preserve">SUBSIDIADA JAAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDOCACUD</t>
   </si>
   <si>
     <t xml:space="preserve">TEL_MADRE</t>
@@ -8091,30 +8091,30 @@
         <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E123" t="n">
         <v>10.5263157894737</v>
       </c>
-      <c r="F123"/>
-      <c r="G123"/>
+      <c r="F123" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" t="s">
+        <v>157</v>
+      </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
-      <c r="M123" t="s">
-        <v>157</v>
-      </c>
-      <c r="N123" t="s">
-        <v>157</v>
-      </c>
+      <c r="M123"/>
+      <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123"/>
@@ -8149,19 +8149,19 @@
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
+      <c r="M124" t="s">
+        <v>158</v>
+      </c>
+      <c r="N124" t="s">
+        <v>158</v>
+      </c>
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124"/>
-      <c r="R124" t="s">
-        <v>158</v>
-      </c>
+      <c r="R124"/>
       <c r="S124"/>
       <c r="T124"/>
-      <c r="U124" t="s">
-        <v>158</v>
-      </c>
+      <c r="U124"/>
       <c r="V124"/>
       <c r="W124"/>
       <c r="X124"/>
@@ -8170,36 +8170,38 @@
       <c r="A125" t="s">
         <v>159</v>
       </c>
-      <c r="B125"/>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E125" t="n">
         <v>10.5263157894737</v>
       </c>
       <c r="F125"/>
-      <c r="G125" t="s">
-        <v>159</v>
-      </c>
+      <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
-      <c r="M125" t="s">
-        <v>159</v>
-      </c>
+      <c r="M125"/>
       <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125"/>
-      <c r="R125"/>
+      <c r="R125" t="s">
+        <v>159</v>
+      </c>
       <c r="S125"/>
       <c r="T125"/>
-      <c r="U125"/>
+      <c r="U125" t="s">
+        <v>159</v>
+      </c>
       <c r="V125"/>
       <c r="W125"/>
       <c r="X125"/>
@@ -8210,30 +8212,30 @@
       </c>
       <c r="B126"/>
       <c r="C126" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="E126" t="n">
         <v>10.5263157894737</v>
       </c>
       <c r="F126"/>
-      <c r="G126"/>
+      <c r="G126" t="s">
+        <v>160</v>
+      </c>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126" t="s">
+      <c r="M126" t="s">
         <v>160</v>
       </c>
+      <c r="N126"/>
       <c r="O126"/>
       <c r="P126"/>
-      <c r="Q126" t="s">
-        <v>160</v>
-      </c>
+      <c r="Q126"/>
       <c r="R126"/>
       <c r="S126"/>
       <c r="T126"/>
@@ -8246,34 +8248,32 @@
       <c r="A127" t="s">
         <v>161</v>
       </c>
-      <c r="B127" t="s">
-        <v>25</v>
-      </c>
+      <c r="B127"/>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E127" t="n">
         <v>10.5263157894737</v>
       </c>
       <c r="F127"/>
-      <c r="G127" t="s">
-        <v>161</v>
-      </c>
+      <c r="G127"/>
       <c r="H127"/>
-      <c r="I127" t="s">
-        <v>161</v>
-      </c>
+      <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
-      <c r="N127"/>
+      <c r="N127" t="s">
+        <v>161</v>
+      </c>
       <c r="O127"/>
       <c r="P127"/>
-      <c r="Q127"/>
+      <c r="Q127" t="s">
+        <v>161</v>
+      </c>
       <c r="R127"/>
       <c r="S127"/>
       <c r="T127"/>
@@ -8299,19 +8299,19 @@
         <v>10.5263157894737</v>
       </c>
       <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128" t="s">
+      <c r="G128" t="s">
         <v>162</v>
       </c>
-      <c r="I128"/>
+      <c r="H128"/>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
       <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
-      <c r="O128" t="s">
-        <v>162</v>
-      </c>
+      <c r="O128"/>
       <c r="P128"/>
       <c r="Q128"/>
       <c r="R128"/>
@@ -8327,29 +8327,31 @@
         <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E129" t="n">
-        <v>5.26315789473684</v>
+        <v>10.5263157894737</v>
       </c>
       <c r="F129"/>
       <c r="G129"/>
-      <c r="H129"/>
+      <c r="H129" t="s">
+        <v>163</v>
+      </c>
       <c r="I129"/>
       <c r="J129"/>
-      <c r="K129" t="s">
-        <v>163</v>
-      </c>
+      <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
-      <c r="O129"/>
+      <c r="O129" t="s">
+        <v>163</v>
+      </c>
       <c r="P129"/>
       <c r="Q129"/>
       <c r="R129"/>
@@ -8365,25 +8367,25 @@
         <v>164</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E130" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F130" t="s">
-        <v>164</v>
-      </c>
+      <c r="F130"/>
       <c r="G130"/>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130"/>
-      <c r="K130"/>
+      <c r="K130" t="s">
+        <v>164</v>
+      </c>
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
@@ -8403,18 +8405,20 @@
         <v>165</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E131" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F131"/>
+      <c r="F131" t="s">
+        <v>165</v>
+      </c>
       <c r="G131"/>
       <c r="H131"/>
       <c r="I131"/>
@@ -8430,9 +8434,7 @@
       <c r="S131"/>
       <c r="T131"/>
       <c r="U131"/>
-      <c r="V131" t="s">
-        <v>165</v>
-      </c>
+      <c r="V131"/>
       <c r="W131"/>
       <c r="X131"/>
     </row>
@@ -8707,13 +8709,13 @@
         <v>173</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E139" t="n">
         <v>5.26315789473684</v>
@@ -8722,9 +8724,7 @@
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139"/>
-      <c r="J139" t="s">
-        <v>173</v>
-      </c>
+      <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139"/>
@@ -8736,7 +8736,9 @@
       <c r="S139"/>
       <c r="T139"/>
       <c r="U139"/>
-      <c r="V139"/>
+      <c r="V139" t="s">
+        <v>173</v>
+      </c>
       <c r="W139"/>
       <c r="X139"/>
     </row>
@@ -8745,13 +8747,13 @@
         <v>174</v>
       </c>
       <c r="B140" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C140" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D140" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E140" t="n">
         <v>5.26315789473684</v>
@@ -8760,14 +8762,14 @@
       <c r="G140"/>
       <c r="H140"/>
       <c r="I140"/>
-      <c r="J140"/>
+      <c r="J140" t="s">
+        <v>174</v>
+      </c>
       <c r="K140"/>
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
-      <c r="O140" t="s">
-        <v>174</v>
-      </c>
+      <c r="O140"/>
       <c r="P140"/>
       <c r="Q140"/>
       <c r="R140"/>
@@ -8783,13 +8785,13 @@
         <v>175</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E141" t="n">
         <v>5.26315789473684</v>
@@ -8803,16 +8805,16 @@
       <c r="L141"/>
       <c r="M141"/>
       <c r="N141"/>
-      <c r="O141"/>
+      <c r="O141" t="s">
+        <v>175</v>
+      </c>
       <c r="P141"/>
       <c r="Q141"/>
       <c r="R141"/>
       <c r="S141"/>
       <c r="T141"/>
       <c r="U141"/>
-      <c r="V141" t="s">
-        <v>175</v>
-      </c>
+      <c r="V141"/>
       <c r="W141"/>
       <c r="X141"/>
     </row>
@@ -8848,10 +8850,10 @@
       <c r="S142"/>
       <c r="T142"/>
       <c r="U142"/>
-      <c r="V142"/>
-      <c r="W142" t="s">
+      <c r="V142" t="s">
         <v>176</v>
       </c>
+      <c r="W142"/>
       <c r="X142"/>
     </row>
     <row r="143">
@@ -8859,20 +8861,18 @@
         <v>177</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E143" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F143" t="s">
-        <v>177</v>
-      </c>
+      <c r="F143"/>
       <c r="G143"/>
       <c r="H143"/>
       <c r="I143"/>
@@ -8889,7 +8889,9 @@
       <c r="T143"/>
       <c r="U143"/>
       <c r="V143"/>
-      <c r="W143"/>
+      <c r="W143" t="s">
+        <v>177</v>
+      </c>
       <c r="X143"/>
     </row>
     <row r="144">
@@ -8908,10 +8910,10 @@
       <c r="E144" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F144"/>
-      <c r="G144" t="s">
+      <c r="F144" t="s">
         <v>178</v>
       </c>
+      <c r="G144"/>
       <c r="H144"/>
       <c r="I144"/>
       <c r="J144"/>
@@ -8935,13 +8937,13 @@
         <v>179</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E145" t="n">
         <v>5.26315789473684</v>
@@ -9011,13 +9013,13 @@
         <v>181</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E147" t="n">
         <v>5.26315789473684</v>
@@ -9125,13 +9127,13 @@
         <v>184</v>
       </c>
       <c r="B150" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C150" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D150" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E150" t="n">
         <v>5.26315789473684</v>
@@ -9163,13 +9165,13 @@
         <v>185</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E151" t="n">
         <v>5.26315789473684</v>
@@ -9212,10 +9214,10 @@
       <c r="E152" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152"/>
+      <c r="G152" t="s">
         <v>186</v>
       </c>
-      <c r="G152"/>
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152"/>
@@ -9250,14 +9252,14 @@
       <c r="E153" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F153"/>
+      <c r="F153" t="s">
+        <v>187</v>
+      </c>
       <c r="G153"/>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153"/>
-      <c r="K153" t="s">
-        <v>187</v>
-      </c>
+      <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
       <c r="N153"/>
@@ -9277,13 +9279,13 @@
         <v>188</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E154" t="n">
         <v>5.26315789473684</v>
@@ -9293,12 +9295,12 @@
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154"/>
-      <c r="K154"/>
+      <c r="K154" t="s">
+        <v>188</v>
+      </c>
       <c r="L154"/>
       <c r="M154"/>
-      <c r="N154" t="s">
-        <v>188</v>
-      </c>
+      <c r="N154"/>
       <c r="O154"/>
       <c r="P154"/>
       <c r="Q154"/>
@@ -9315,13 +9317,13 @@
         <v>189</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E155" t="n">
         <v>5.26315789473684</v>
@@ -9331,12 +9333,12 @@
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155"/>
-      <c r="K155" t="s">
-        <v>189</v>
-      </c>
+      <c r="K155"/>
       <c r="L155"/>
       <c r="M155"/>
-      <c r="N155"/>
+      <c r="N155" t="s">
+        <v>189</v>
+      </c>
       <c r="O155"/>
       <c r="P155"/>
       <c r="Q155"/>
@@ -9367,11 +9369,11 @@
       <c r="F156"/>
       <c r="G156"/>
       <c r="H156"/>
-      <c r="I156" t="s">
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156" t="s">
         <v>190</v>
       </c>
-      <c r="J156"/>
-      <c r="K156"/>
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156"/>
@@ -9402,12 +9404,12 @@
       <c r="E157" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F157" t="s">
-        <v>191</v>
-      </c>
+      <c r="F157"/>
       <c r="G157"/>
       <c r="H157"/>
-      <c r="I157"/>
+      <c r="I157" t="s">
+        <v>191</v>
+      </c>
       <c r="J157"/>
       <c r="K157"/>
       <c r="L157"/>
@@ -9478,10 +9480,10 @@
       <c r="E159" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F159"/>
-      <c r="G159" t="s">
+      <c r="F159" t="s">
         <v>193</v>
       </c>
+      <c r="G159"/>
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159"/>
@@ -9516,10 +9518,10 @@
       <c r="E160" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160"/>
+      <c r="G160" t="s">
         <v>194</v>
       </c>
-      <c r="G160"/>
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160"/>
@@ -9592,14 +9594,14 @@
       <c r="E162" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F162"/>
+      <c r="F162" t="s">
+        <v>196</v>
+      </c>
       <c r="G162"/>
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162"/>
-      <c r="K162" t="s">
-        <v>196</v>
-      </c>
+      <c r="K162"/>
       <c r="L162"/>
       <c r="M162"/>
       <c r="N162"/>
@@ -9673,15 +9675,15 @@
       <c r="H164"/>
       <c r="I164"/>
       <c r="J164"/>
-      <c r="K164"/>
+      <c r="K164" t="s">
+        <v>198</v>
+      </c>
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164"/>
       <c r="O164"/>
       <c r="P164"/>
-      <c r="Q164" t="s">
-        <v>198</v>
-      </c>
+      <c r="Q164"/>
       <c r="R164"/>
       <c r="S164"/>
       <c r="T164"/>
@@ -9706,9 +9708,7 @@
       <c r="E165" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F165" t="s">
-        <v>199</v>
-      </c>
+      <c r="F165"/>
       <c r="G165"/>
       <c r="H165"/>
       <c r="I165"/>
@@ -9719,7 +9719,9 @@
       <c r="N165"/>
       <c r="O165"/>
       <c r="P165"/>
-      <c r="Q165"/>
+      <c r="Q165" t="s">
+        <v>199</v>
+      </c>
       <c r="R165"/>
       <c r="S165"/>
       <c r="T165"/>
@@ -9809,13 +9811,13 @@
         <v>202</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E168" t="n">
         <v>5.26315789473684</v>
@@ -9847,13 +9849,13 @@
         <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E169" t="n">
         <v>5.26315789473684</v>
@@ -9896,14 +9898,14 @@
       <c r="E170" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F170"/>
+      <c r="F170" t="s">
+        <v>204</v>
+      </c>
       <c r="G170"/>
       <c r="H170"/>
       <c r="I170"/>
       <c r="J170"/>
-      <c r="K170" t="s">
-        <v>204</v>
-      </c>
+      <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
       <c r="N170"/>
@@ -9934,14 +9936,14 @@
       <c r="E171" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F171" t="s">
-        <v>205</v>
-      </c>
+      <c r="F171"/>
       <c r="G171"/>
       <c r="H171"/>
       <c r="I171"/>
       <c r="J171"/>
-      <c r="K171"/>
+      <c r="K171" t="s">
+        <v>205</v>
+      </c>
       <c r="L171"/>
       <c r="M171"/>
       <c r="N171"/>
@@ -9961,18 +9963,20 @@
         <v>206</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E172" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F172"/>
+      <c r="F172" t="s">
+        <v>206</v>
+      </c>
       <c r="G172"/>
       <c r="H172"/>
       <c r="I172"/>
@@ -9983,9 +9987,7 @@
       <c r="N172"/>
       <c r="O172"/>
       <c r="P172"/>
-      <c r="Q172" t="s">
-        <v>206</v>
-      </c>
+      <c r="Q172"/>
       <c r="R172"/>
       <c r="S172"/>
       <c r="T172"/>
@@ -9999,20 +10001,18 @@
         <v>207</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E173" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F173" t="s">
-        <v>207</v>
-      </c>
+      <c r="F173"/>
       <c r="G173"/>
       <c r="H173"/>
       <c r="I173"/>
@@ -10023,7 +10023,9 @@
       <c r="N173"/>
       <c r="O173"/>
       <c r="P173"/>
-      <c r="Q173"/>
+      <c r="Q173" t="s">
+        <v>207</v>
+      </c>
       <c r="R173"/>
       <c r="S173"/>
       <c r="T173"/>
@@ -10048,14 +10050,14 @@
       <c r="E174" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F174"/>
+      <c r="F174" t="s">
+        <v>208</v>
+      </c>
       <c r="G174"/>
       <c r="H174"/>
       <c r="I174"/>
       <c r="J174"/>
-      <c r="K174" t="s">
-        <v>208</v>
-      </c>
+      <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
       <c r="N174"/>
@@ -10089,11 +10091,11 @@
       <c r="F175"/>
       <c r="G175"/>
       <c r="H175"/>
-      <c r="I175" t="s">
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175" t="s">
         <v>209</v>
       </c>
-      <c r="J175"/>
-      <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
       <c r="N175"/>
@@ -10127,11 +10129,11 @@
       <c r="F176"/>
       <c r="G176"/>
       <c r="H176"/>
-      <c r="I176"/>
+      <c r="I176" t="s">
+        <v>210</v>
+      </c>
       <c r="J176"/>
-      <c r="K176" t="s">
-        <v>210</v>
-      </c>
+      <c r="K176"/>
       <c r="L176"/>
       <c r="M176"/>
       <c r="N176"/>
@@ -10167,14 +10169,14 @@
       <c r="H177"/>
       <c r="I177"/>
       <c r="J177"/>
-      <c r="K177"/>
+      <c r="K177" t="s">
+        <v>211</v>
+      </c>
       <c r="L177"/>
       <c r="M177"/>
       <c r="N177"/>
       <c r="O177"/>
-      <c r="P177" t="s">
-        <v>211</v>
-      </c>
+      <c r="P177"/>
       <c r="Q177"/>
       <c r="R177"/>
       <c r="S177"/>
@@ -10189,13 +10191,13 @@
         <v>212</v>
       </c>
       <c r="B178" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E178" t="n">
         <v>5.26315789473684</v>
@@ -10210,10 +10212,10 @@
       <c r="M178"/>
       <c r="N178"/>
       <c r="O178"/>
-      <c r="P178"/>
-      <c r="Q178" t="s">
+      <c r="P178" t="s">
         <v>212</v>
       </c>
+      <c r="Q178"/>
       <c r="R178"/>
       <c r="S178"/>
       <c r="T178"/>
@@ -10249,10 +10251,10 @@
       <c r="N179"/>
       <c r="O179"/>
       <c r="P179"/>
-      <c r="Q179"/>
-      <c r="R179" t="s">
+      <c r="Q179" t="s">
         <v>213</v>
       </c>
+      <c r="R179"/>
       <c r="S179"/>
       <c r="T179"/>
       <c r="U179"/>
@@ -10287,10 +10289,10 @@
       <c r="N180"/>
       <c r="O180"/>
       <c r="P180"/>
-      <c r="Q180" t="s">
+      <c r="Q180"/>
+      <c r="R180" t="s">
         <v>214</v>
       </c>
-      <c r="R180"/>
       <c r="S180"/>
       <c r="T180"/>
       <c r="U180"/>
@@ -10303,13 +10305,13 @@
         <v>215</v>
       </c>
       <c r="B181" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C181" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D181" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E181" t="n">
         <v>5.26315789473684</v>
@@ -10324,10 +10326,10 @@
       <c r="M181"/>
       <c r="N181"/>
       <c r="O181"/>
-      <c r="P181" t="s">
+      <c r="P181"/>
+      <c r="Q181" t="s">
         <v>215</v>
       </c>
-      <c r="Q181"/>
       <c r="R181"/>
       <c r="S181"/>
       <c r="T181"/>
@@ -10341,13 +10343,13 @@
         <v>216</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E182" t="n">
         <v>5.26315789473684</v>
@@ -10362,11 +10364,11 @@
       <c r="M182"/>
       <c r="N182"/>
       <c r="O182"/>
-      <c r="P182"/>
+      <c r="P182" t="s">
+        <v>216</v>
+      </c>
       <c r="Q182"/>
-      <c r="R182" t="s">
-        <v>216</v>
-      </c>
+      <c r="R182"/>
       <c r="S182"/>
       <c r="T182"/>
       <c r="U182"/>
@@ -10379,21 +10381,19 @@
         <v>217</v>
       </c>
       <c r="B183" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D183" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E183" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F183"/>
-      <c r="G183" t="s">
-        <v>217</v>
-      </c>
+      <c r="G183"/>
       <c r="H183"/>
       <c r="I183"/>
       <c r="J183"/>
@@ -10404,7 +10404,9 @@
       <c r="O183"/>
       <c r="P183"/>
       <c r="Q183"/>
-      <c r="R183"/>
+      <c r="R183" t="s">
+        <v>217</v>
+      </c>
       <c r="S183"/>
       <c r="T183"/>
       <c r="U183"/>
@@ -10455,19 +10457,21 @@
         <v>219</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E185" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F185"/>
-      <c r="G185"/>
+      <c r="G185" t="s">
+        <v>219</v>
+      </c>
       <c r="H185"/>
       <c r="I185"/>
       <c r="J185"/>
@@ -10482,9 +10486,7 @@
       <c r="S185"/>
       <c r="T185"/>
       <c r="U185"/>
-      <c r="V185" t="s">
-        <v>219</v>
-      </c>
+      <c r="V185"/>
       <c r="W185"/>
       <c r="X185"/>
     </row>
@@ -10782,13 +10784,13 @@
       <c r="O193"/>
       <c r="P193"/>
       <c r="Q193"/>
-      <c r="R193" t="s">
-        <v>227</v>
-      </c>
+      <c r="R193"/>
       <c r="S193"/>
       <c r="T193"/>
       <c r="U193"/>
-      <c r="V193"/>
+      <c r="V193" t="s">
+        <v>227</v>
+      </c>
       <c r="W193"/>
       <c r="X193"/>
     </row>
@@ -10850,9 +10852,7 @@
       <c r="G195"/>
       <c r="H195"/>
       <c r="I195"/>
-      <c r="J195" t="s">
-        <v>229</v>
-      </c>
+      <c r="J195"/>
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
@@ -10860,7 +10860,9 @@
       <c r="O195"/>
       <c r="P195"/>
       <c r="Q195"/>
-      <c r="R195"/>
+      <c r="R195" t="s">
+        <v>229</v>
+      </c>
       <c r="S195"/>
       <c r="T195"/>
       <c r="U195"/>
@@ -10873,13 +10875,13 @@
         <v>230</v>
       </c>
       <c r="B196" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C196" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D196" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E196" t="n">
         <v>5.26315789473684</v>
@@ -10888,7 +10890,9 @@
       <c r="G196"/>
       <c r="H196"/>
       <c r="I196"/>
-      <c r="J196"/>
+      <c r="J196" t="s">
+        <v>230</v>
+      </c>
       <c r="K196"/>
       <c r="L196"/>
       <c r="M196"/>
@@ -10900,9 +10904,7 @@
       <c r="S196"/>
       <c r="T196"/>
       <c r="U196"/>
-      <c r="V196" t="s">
-        <v>230</v>
-      </c>
+      <c r="V196"/>
       <c r="W196"/>
       <c r="X196"/>
     </row>
@@ -10911,13 +10913,13 @@
         <v>231</v>
       </c>
       <c r="B197" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D197" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E197" t="n">
         <v>5.26315789473684</v>
@@ -10934,13 +10936,13 @@
       <c r="O197"/>
       <c r="P197"/>
       <c r="Q197"/>
-      <c r="R197" t="s">
-        <v>231</v>
-      </c>
+      <c r="R197"/>
       <c r="S197"/>
       <c r="T197"/>
       <c r="U197"/>
-      <c r="V197"/>
+      <c r="V197" t="s">
+        <v>231</v>
+      </c>
       <c r="W197"/>
       <c r="X197"/>
     </row>
@@ -10949,13 +10951,13 @@
         <v>232</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E198" t="n">
         <v>5.26315789473684</v>
@@ -11009,10 +11011,10 @@
       <c r="N199"/>
       <c r="O199"/>
       <c r="P199"/>
-      <c r="Q199" t="s">
+      <c r="Q199"/>
+      <c r="R199" t="s">
         <v>233</v>
       </c>
-      <c r="R199"/>
       <c r="S199"/>
       <c r="T199"/>
       <c r="U199"/>
@@ -11047,14 +11049,14 @@
       <c r="N200"/>
       <c r="O200"/>
       <c r="P200"/>
-      <c r="Q200"/>
+      <c r="Q200" t="s">
+        <v>234</v>
+      </c>
       <c r="R200"/>
       <c r="S200"/>
       <c r="T200"/>
       <c r="U200"/>
-      <c r="V200" t="s">
-        <v>234</v>
-      </c>
+      <c r="V200"/>
       <c r="W200"/>
       <c r="X200"/>
     </row>
@@ -11063,13 +11065,13 @@
         <v>235</v>
       </c>
       <c r="B201" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E201" t="n">
         <v>5.26315789473684</v>
@@ -11085,14 +11087,14 @@
       <c r="N201"/>
       <c r="O201"/>
       <c r="P201"/>
-      <c r="Q201" t="s">
-        <v>235</v>
-      </c>
+      <c r="Q201"/>
       <c r="R201"/>
       <c r="S201"/>
       <c r="T201"/>
       <c r="U201"/>
-      <c r="V201"/>
+      <c r="V201" t="s">
+        <v>235</v>
+      </c>
       <c r="W201"/>
       <c r="X201"/>
     </row>
@@ -11101,13 +11103,13 @@
         <v>236</v>
       </c>
       <c r="B202" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E202" t="n">
         <v>5.26315789473684</v>
@@ -11123,10 +11125,10 @@
       <c r="N202"/>
       <c r="O202"/>
       <c r="P202"/>
-      <c r="Q202"/>
-      <c r="R202" t="s">
+      <c r="Q202" t="s">
         <v>236</v>
       </c>
+      <c r="R202"/>
       <c r="S202"/>
       <c r="T202"/>
       <c r="U202"/>
@@ -11139,13 +11141,13 @@
         <v>237</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D203" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E203" t="n">
         <v>5.26315789473684</v>
@@ -11153,9 +11155,7 @@
       <c r="F203"/>
       <c r="G203"/>
       <c r="H203"/>
-      <c r="I203" t="s">
-        <v>237</v>
-      </c>
+      <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
       <c r="L203"/>
@@ -11164,7 +11164,9 @@
       <c r="O203"/>
       <c r="P203"/>
       <c r="Q203"/>
-      <c r="R203"/>
+      <c r="R203" t="s">
+        <v>237</v>
+      </c>
       <c r="S203"/>
       <c r="T203"/>
       <c r="U203"/>
@@ -11191,16 +11193,16 @@
       <c r="F204"/>
       <c r="G204"/>
       <c r="H204"/>
-      <c r="I204"/>
+      <c r="I204" t="s">
+        <v>238</v>
+      </c>
       <c r="J204"/>
       <c r="K204"/>
       <c r="L204"/>
       <c r="M204"/>
       <c r="N204"/>
       <c r="O204"/>
-      <c r="P204" t="s">
-        <v>238</v>
-      </c>
+      <c r="P204"/>
       <c r="Q204"/>
       <c r="R204"/>
       <c r="S204"/>
@@ -11215,13 +11217,13 @@
         <v>239</v>
       </c>
       <c r="B205" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C205" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D205" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E205" t="n">
         <v>5.26315789473684</v>
@@ -11234,11 +11236,11 @@
       <c r="K205"/>
       <c r="L205"/>
       <c r="M205"/>
-      <c r="N205" t="s">
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205" t="s">
         <v>239</v>
       </c>
-      <c r="O205"/>
-      <c r="P205"/>
       <c r="Q205"/>
       <c r="R205"/>
       <c r="S205"/>
@@ -11253,13 +11255,13 @@
         <v>240</v>
       </c>
       <c r="B206" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C206" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D206" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E206" t="n">
         <v>5.26315789473684</v>
@@ -11272,13 +11274,13 @@
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
-      <c r="N206"/>
+      <c r="N206" t="s">
+        <v>240</v>
+      </c>
       <c r="O206"/>
       <c r="P206"/>
       <c r="Q206"/>
-      <c r="R206" t="s">
-        <v>240</v>
-      </c>
+      <c r="R206"/>
       <c r="S206"/>
       <c r="T206"/>
       <c r="U206"/>
@@ -11291,20 +11293,18 @@
         <v>241</v>
       </c>
       <c r="B207" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E207" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F207" t="s">
-        <v>241</v>
-      </c>
+      <c r="F207"/>
       <c r="G207"/>
       <c r="H207"/>
       <c r="I207"/>
@@ -11316,7 +11316,9 @@
       <c r="O207"/>
       <c r="P207"/>
       <c r="Q207"/>
-      <c r="R207"/>
+      <c r="R207" t="s">
+        <v>241</v>
+      </c>
       <c r="S207"/>
       <c r="T207"/>
       <c r="U207"/>
@@ -11340,11 +11342,11 @@
       <c r="E208" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F208"/>
+      <c r="F208" t="s">
+        <v>242</v>
+      </c>
       <c r="G208"/>
-      <c r="H208" t="s">
-        <v>242</v>
-      </c>
+      <c r="H208"/>
       <c r="I208"/>
       <c r="J208"/>
       <c r="K208"/>
@@ -11367,25 +11369,25 @@
         <v>243</v>
       </c>
       <c r="B209" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E209" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F209"/>
       <c r="G209"/>
-      <c r="H209"/>
+      <c r="H209" t="s">
+        <v>243</v>
+      </c>
       <c r="I209"/>
       <c r="J209"/>
-      <c r="K209" t="s">
-        <v>243</v>
-      </c>
+      <c r="K209"/>
       <c r="L209"/>
       <c r="M209"/>
       <c r="N209"/>
@@ -11405,13 +11407,13 @@
         <v>244</v>
       </c>
       <c r="B210" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E210" t="n">
         <v>5.26315789473684</v>
@@ -11481,25 +11483,25 @@
         <v>246</v>
       </c>
       <c r="B212" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C212" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E212" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F212"/>
-      <c r="G212" t="s">
-        <v>246</v>
-      </c>
+      <c r="G212"/>
       <c r="H212"/>
       <c r="I212"/>
       <c r="J212"/>
-      <c r="K212"/>
+      <c r="K212" t="s">
+        <v>246</v>
+      </c>
       <c r="L212"/>
       <c r="M212"/>
       <c r="N212"/>
@@ -11519,13 +11521,13 @@
         <v>247</v>
       </c>
       <c r="B213" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C213" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E213" t="n">
         <v>5.26315789473684</v>
@@ -11557,13 +11559,13 @@
         <v>248</v>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E214" t="n">
         <v>5.26315789473684</v>
@@ -11606,10 +11608,10 @@
       <c r="E215" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215"/>
+      <c r="G215" t="s">
         <v>249</v>
       </c>
-      <c r="G215"/>
       <c r="H215"/>
       <c r="I215"/>
       <c r="J215"/>
@@ -11747,27 +11749,27 @@
         <v>253</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D219" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E219" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F219"/>
+      <c r="F219" t="s">
+        <v>253</v>
+      </c>
       <c r="G219"/>
       <c r="H219"/>
       <c r="I219"/>
       <c r="J219"/>
       <c r="K219"/>
       <c r="L219"/>
-      <c r="M219" t="s">
-        <v>253</v>
-      </c>
+      <c r="M219"/>
       <c r="N219"/>
       <c r="O219"/>
       <c r="P219"/>
@@ -11899,13 +11901,13 @@
         <v>257</v>
       </c>
       <c r="B223" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E223" t="n">
         <v>5.26315789473684</v>
@@ -11917,14 +11919,14 @@
       <c r="J223"/>
       <c r="K223"/>
       <c r="L223"/>
-      <c r="M223"/>
+      <c r="M223" t="s">
+        <v>257</v>
+      </c>
       <c r="N223"/>
       <c r="O223"/>
       <c r="P223"/>
       <c r="Q223"/>
-      <c r="R223" t="s">
-        <v>257</v>
-      </c>
+      <c r="R223"/>
       <c r="S223"/>
       <c r="T223"/>
       <c r="U223"/>
@@ -11948,7 +11950,9 @@
       <c r="E224" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F224"/>
+      <c r="F224" t="s">
+        <v>258</v>
+      </c>
       <c r="G224"/>
       <c r="H224"/>
       <c r="I224"/>
@@ -11956,9 +11960,7 @@
       <c r="K224"/>
       <c r="L224"/>
       <c r="M224"/>
-      <c r="N224" t="s">
-        <v>258</v>
-      </c>
+      <c r="N224"/>
       <c r="O224"/>
       <c r="P224"/>
       <c r="Q224"/>
@@ -11994,13 +11996,13 @@
       <c r="K225"/>
       <c r="L225"/>
       <c r="M225"/>
-      <c r="N225" t="s">
-        <v>259</v>
-      </c>
+      <c r="N225"/>
       <c r="O225"/>
       <c r="P225"/>
       <c r="Q225"/>
-      <c r="R225"/>
+      <c r="R225" t="s">
+        <v>259</v>
+      </c>
       <c r="S225"/>
       <c r="T225"/>
       <c r="U225"/>
@@ -12024,9 +12026,7 @@
       <c r="E226" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F226" t="s">
-        <v>260</v>
-      </c>
+      <c r="F226"/>
       <c r="G226"/>
       <c r="H226"/>
       <c r="I226"/>
@@ -12034,7 +12034,9 @@
       <c r="K226"/>
       <c r="L226"/>
       <c r="M226"/>
-      <c r="N226"/>
+      <c r="N226" t="s">
+        <v>260</v>
+      </c>
       <c r="O226"/>
       <c r="P226"/>
       <c r="Q226"/>
@@ -12051,13 +12053,13 @@
         <v>261</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E227" t="n">
         <v>5.26315789473684</v>
@@ -12070,7 +12072,9 @@
       <c r="K227"/>
       <c r="L227"/>
       <c r="M227"/>
-      <c r="N227"/>
+      <c r="N227" t="s">
+        <v>261</v>
+      </c>
       <c r="O227"/>
       <c r="P227"/>
       <c r="Q227"/>
@@ -12079,9 +12083,7 @@
       <c r="T227"/>
       <c r="U227"/>
       <c r="V227"/>
-      <c r="W227" t="s">
-        <v>261</v>
-      </c>
+      <c r="W227"/>
       <c r="X227"/>
     </row>
     <row r="228">
@@ -12100,10 +12102,10 @@
       <c r="E228" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F228"/>
-      <c r="G228" t="s">
+      <c r="F228" t="s">
         <v>262</v>
       </c>
+      <c r="G228"/>
       <c r="H228"/>
       <c r="I228"/>
       <c r="J228"/>
@@ -12127,21 +12129,19 @@
         <v>263</v>
       </c>
       <c r="B229" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C229" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D229" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E229" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F229"/>
-      <c r="G229" t="s">
-        <v>263</v>
-      </c>
+      <c r="G229"/>
       <c r="H229"/>
       <c r="I229"/>
       <c r="J229"/>
@@ -12157,7 +12157,9 @@
       <c r="T229"/>
       <c r="U229"/>
       <c r="V229"/>
-      <c r="W229"/>
+      <c r="W229" t="s">
+        <v>263</v>
+      </c>
       <c r="X229"/>
     </row>
     <row r="230">
@@ -12203,21 +12205,21 @@
         <v>265</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E231" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231"/>
+      <c r="G231" t="s">
         <v>265</v>
       </c>
-      <c r="G231"/>
       <c r="H231"/>
       <c r="I231"/>
       <c r="J231"/>
@@ -12252,10 +12254,10 @@
       <c r="E232" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232"/>
+      <c r="G232" t="s">
         <v>266</v>
       </c>
-      <c r="G232"/>
       <c r="H232"/>
       <c r="I232"/>
       <c r="J232"/>
@@ -12279,18 +12281,20 @@
         <v>267</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E233" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F233"/>
+      <c r="F233" t="s">
+        <v>267</v>
+      </c>
       <c r="G233"/>
       <c r="H233"/>
       <c r="I233"/>
@@ -12300,9 +12304,7 @@
       <c r="M233"/>
       <c r="N233"/>
       <c r="O233"/>
-      <c r="P233" t="s">
-        <v>267</v>
-      </c>
+      <c r="P233"/>
       <c r="Q233"/>
       <c r="R233"/>
       <c r="S233"/>
@@ -12317,26 +12319,26 @@
         <v>268</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E234" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F234"/>
+      <c r="F234" t="s">
+        <v>268</v>
+      </c>
       <c r="G234"/>
       <c r="H234"/>
       <c r="I234"/>
       <c r="J234"/>
       <c r="K234"/>
-      <c r="L234" t="s">
-        <v>268</v>
-      </c>
+      <c r="L234"/>
       <c r="M234"/>
       <c r="N234"/>
       <c r="O234"/>
@@ -12370,15 +12372,15 @@
       <c r="G235"/>
       <c r="H235"/>
       <c r="I235"/>
-      <c r="J235" t="s">
-        <v>269</v>
-      </c>
+      <c r="J235"/>
       <c r="K235"/>
       <c r="L235"/>
       <c r="M235"/>
       <c r="N235"/>
       <c r="O235"/>
-      <c r="P235"/>
+      <c r="P235" t="s">
+        <v>269</v>
+      </c>
       <c r="Q235"/>
       <c r="R235"/>
       <c r="S235"/>
@@ -12410,14 +12412,14 @@
       <c r="I236"/>
       <c r="J236"/>
       <c r="K236"/>
-      <c r="L236"/>
+      <c r="L236" t="s">
+        <v>270</v>
+      </c>
       <c r="M236"/>
       <c r="N236"/>
       <c r="O236"/>
       <c r="P236"/>
-      <c r="Q236" t="s">
-        <v>270</v>
-      </c>
+      <c r="Q236"/>
       <c r="R236"/>
       <c r="S236"/>
       <c r="T236"/>
@@ -12446,7 +12448,9 @@
       <c r="G237"/>
       <c r="H237"/>
       <c r="I237"/>
-      <c r="J237"/>
+      <c r="J237" t="s">
+        <v>271</v>
+      </c>
       <c r="K237"/>
       <c r="L237"/>
       <c r="M237"/>
@@ -12454,9 +12458,7 @@
       <c r="O237"/>
       <c r="P237"/>
       <c r="Q237"/>
-      <c r="R237" t="s">
-        <v>271</v>
-      </c>
+      <c r="R237"/>
       <c r="S237"/>
       <c r="T237"/>
       <c r="U237"/>
@@ -12487,13 +12489,13 @@
       <c r="J238"/>
       <c r="K238"/>
       <c r="L238"/>
-      <c r="M238" t="s">
-        <v>272</v>
-      </c>
+      <c r="M238"/>
       <c r="N238"/>
       <c r="O238"/>
       <c r="P238"/>
-      <c r="Q238"/>
+      <c r="Q238" t="s">
+        <v>272</v>
+      </c>
       <c r="R238"/>
       <c r="S238"/>
       <c r="T238"/>
@@ -12525,14 +12527,14 @@
       <c r="J239"/>
       <c r="K239"/>
       <c r="L239"/>
-      <c r="M239" t="s">
-        <v>273</v>
-      </c>
+      <c r="M239"/>
       <c r="N239"/>
       <c r="O239"/>
       <c r="P239"/>
       <c r="Q239"/>
-      <c r="R239"/>
+      <c r="R239" t="s">
+        <v>273</v>
+      </c>
       <c r="S239"/>
       <c r="T239"/>
       <c r="U239"/>
@@ -12599,11 +12601,11 @@
       <c r="H241"/>
       <c r="I241"/>
       <c r="J241"/>
-      <c r="K241" t="s">
+      <c r="K241"/>
+      <c r="L241"/>
+      <c r="M241" t="s">
         <v>275</v>
       </c>
-      <c r="L241"/>
-      <c r="M241"/>
       <c r="N241"/>
       <c r="O241"/>
       <c r="P241"/>
@@ -12715,14 +12717,14 @@
       <c r="J244"/>
       <c r="K244"/>
       <c r="L244"/>
-      <c r="M244"/>
+      <c r="M244" t="s">
+        <v>278</v>
+      </c>
       <c r="N244"/>
       <c r="O244"/>
       <c r="P244"/>
       <c r="Q244"/>
-      <c r="R244" t="s">
-        <v>278</v>
-      </c>
+      <c r="R244"/>
       <c r="S244"/>
       <c r="T244"/>
       <c r="U244"/>
@@ -12751,15 +12753,15 @@
       <c r="H245"/>
       <c r="I245"/>
       <c r="J245"/>
-      <c r="K245"/>
+      <c r="K245" t="s">
+        <v>279</v>
+      </c>
       <c r="L245"/>
       <c r="M245"/>
       <c r="N245"/>
       <c r="O245"/>
       <c r="P245"/>
-      <c r="Q245" t="s">
-        <v>279</v>
-      </c>
+      <c r="Q245"/>
       <c r="R245"/>
       <c r="S245"/>
       <c r="T245"/>
@@ -12773,21 +12775,19 @@
         <v>280</v>
       </c>
       <c r="B246" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D246" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E246" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F246"/>
-      <c r="G246" t="s">
-        <v>280</v>
-      </c>
+      <c r="G246"/>
       <c r="H246"/>
       <c r="I246"/>
       <c r="J246"/>
@@ -12798,7 +12798,9 @@
       <c r="O246"/>
       <c r="P246"/>
       <c r="Q246"/>
-      <c r="R246"/>
+      <c r="R246" t="s">
+        <v>280</v>
+      </c>
       <c r="S246"/>
       <c r="T246"/>
       <c r="U246"/>
@@ -12811,20 +12813,18 @@
         <v>281</v>
       </c>
       <c r="B247" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D247" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E247" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F247" t="s">
-        <v>281</v>
-      </c>
+      <c r="F247"/>
       <c r="G247"/>
       <c r="H247"/>
       <c r="I247"/>
@@ -12835,7 +12835,9 @@
       <c r="N247"/>
       <c r="O247"/>
       <c r="P247"/>
-      <c r="Q247"/>
+      <c r="Q247" t="s">
+        <v>281</v>
+      </c>
       <c r="R247"/>
       <c r="S247"/>
       <c r="T247"/>
@@ -12937,7 +12939,9 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F250"/>
-      <c r="G250"/>
+      <c r="G250" t="s">
+        <v>284</v>
+      </c>
       <c r="H250"/>
       <c r="I250"/>
       <c r="J250"/>
@@ -12948,9 +12952,7 @@
       <c r="O250"/>
       <c r="P250"/>
       <c r="Q250"/>
-      <c r="R250" t="s">
-        <v>284</v>
-      </c>
+      <c r="R250"/>
       <c r="S250"/>
       <c r="T250"/>
       <c r="U250"/>
@@ -12974,7 +12976,9 @@
       <c r="E251" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F251"/>
+      <c r="F251" t="s">
+        <v>285</v>
+      </c>
       <c r="G251"/>
       <c r="H251"/>
       <c r="I251"/>
@@ -12985,9 +12989,7 @@
       <c r="N251"/>
       <c r="O251"/>
       <c r="P251"/>
-      <c r="Q251" t="s">
-        <v>285</v>
-      </c>
+      <c r="Q251"/>
       <c r="R251"/>
       <c r="S251"/>
       <c r="T251"/>
@@ -13022,11 +13024,11 @@
       <c r="M252"/>
       <c r="N252"/>
       <c r="O252"/>
-      <c r="P252" t="s">
+      <c r="P252"/>
+      <c r="Q252"/>
+      <c r="R252" t="s">
         <v>286</v>
       </c>
-      <c r="Q252"/>
-      <c r="R252"/>
       <c r="S252"/>
       <c r="T252"/>
       <c r="U252"/>
@@ -13060,10 +13062,10 @@
       <c r="M253"/>
       <c r="N253"/>
       <c r="O253"/>
-      <c r="P253" t="s">
+      <c r="P253"/>
+      <c r="Q253" t="s">
         <v>287</v>
       </c>
-      <c r="Q253"/>
       <c r="R253"/>
       <c r="S253"/>
       <c r="T253"/>
@@ -13093,14 +13095,14 @@
       <c r="H254"/>
       <c r="I254"/>
       <c r="J254"/>
-      <c r="K254" t="s">
-        <v>288</v>
-      </c>
+      <c r="K254"/>
       <c r="L254"/>
       <c r="M254"/>
       <c r="N254"/>
       <c r="O254"/>
-      <c r="P254"/>
+      <c r="P254" t="s">
+        <v>288</v>
+      </c>
       <c r="Q254"/>
       <c r="R254"/>
       <c r="S254"/>
@@ -13115,13 +13117,13 @@
         <v>289</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C255" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E255" t="n">
         <v>5.26315789473684</v>
@@ -13136,11 +13138,11 @@
       <c r="M255"/>
       <c r="N255"/>
       <c r="O255"/>
-      <c r="P255"/>
+      <c r="P255" t="s">
+        <v>289</v>
+      </c>
       <c r="Q255"/>
-      <c r="R255" t="s">
-        <v>289</v>
-      </c>
+      <c r="R255"/>
       <c r="S255"/>
       <c r="T255"/>
       <c r="U255"/>
@@ -13167,11 +13169,11 @@
       <c r="F256"/>
       <c r="G256"/>
       <c r="H256"/>
-      <c r="I256" t="s">
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256" t="s">
         <v>290</v>
       </c>
-      <c r="J256"/>
-      <c r="K256"/>
       <c r="L256"/>
       <c r="M256"/>
       <c r="N256"/>
@@ -13191,13 +13193,13 @@
         <v>291</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C257" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D257" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E257" t="n">
         <v>5.26315789473684</v>
@@ -13207,16 +13209,16 @@
       <c r="H257"/>
       <c r="I257"/>
       <c r="J257"/>
-      <c r="K257" t="s">
-        <v>291</v>
-      </c>
+      <c r="K257"/>
       <c r="L257"/>
       <c r="M257"/>
       <c r="N257"/>
       <c r="O257"/>
       <c r="P257"/>
       <c r="Q257"/>
-      <c r="R257"/>
+      <c r="R257" t="s">
+        <v>291</v>
+      </c>
       <c r="S257"/>
       <c r="T257"/>
       <c r="U257"/>
@@ -13243,11 +13245,11 @@
       <c r="F258"/>
       <c r="G258"/>
       <c r="H258"/>
-      <c r="I258"/>
+      <c r="I258" t="s">
+        <v>292</v>
+      </c>
       <c r="J258"/>
-      <c r="K258" t="s">
-        <v>292</v>
-      </c>
+      <c r="K258"/>
       <c r="L258"/>
       <c r="M258"/>
       <c r="N258"/>
@@ -13280,12 +13282,12 @@
       </c>
       <c r="F259"/>
       <c r="G259"/>
-      <c r="H259" t="s">
-        <v>293</v>
-      </c>
+      <c r="H259"/>
       <c r="I259"/>
       <c r="J259"/>
-      <c r="K259"/>
+      <c r="K259" t="s">
+        <v>293</v>
+      </c>
       <c r="L259"/>
       <c r="M259"/>
       <c r="N259"/>
@@ -13305,13 +13307,13 @@
         <v>294</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E260" t="n">
         <v>5.26315789473684</v>
@@ -13321,11 +13323,11 @@
       <c r="H260"/>
       <c r="I260"/>
       <c r="J260"/>
-      <c r="K260"/>
+      <c r="K260" t="s">
+        <v>294</v>
+      </c>
       <c r="L260"/>
-      <c r="M260" t="s">
-        <v>294</v>
-      </c>
+      <c r="M260"/>
       <c r="N260"/>
       <c r="O260"/>
       <c r="P260"/>
@@ -13343,27 +13345,27 @@
         <v>295</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C261" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E261" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F261"/>
       <c r="G261"/>
-      <c r="H261"/>
+      <c r="H261" t="s">
+        <v>295</v>
+      </c>
       <c r="I261"/>
       <c r="J261"/>
       <c r="K261"/>
       <c r="L261"/>
-      <c r="M261" t="s">
-        <v>295</v>
-      </c>
+      <c r="M261"/>
       <c r="N261"/>
       <c r="O261"/>
       <c r="P261"/>
@@ -13381,27 +13383,27 @@
         <v>296</v>
       </c>
       <c r="B262" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C262" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D262" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E262" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F262" t="s">
-        <v>296</v>
-      </c>
+      <c r="F262"/>
       <c r="G262"/>
       <c r="H262"/>
       <c r="I262"/>
       <c r="J262"/>
       <c r="K262"/>
       <c r="L262"/>
-      <c r="M262"/>
+      <c r="M262" t="s">
+        <v>296</v>
+      </c>
       <c r="N262"/>
       <c r="O262"/>
       <c r="P262"/>
@@ -13419,13 +13421,13 @@
         <v>297</v>
       </c>
       <c r="B263" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C263" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D263" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E263" t="n">
         <v>5.26315789473684</v>
@@ -13436,10 +13438,10 @@
       <c r="I263"/>
       <c r="J263"/>
       <c r="K263"/>
-      <c r="L263" t="s">
+      <c r="L263"/>
+      <c r="M263" t="s">
         <v>297</v>
       </c>
-      <c r="M263"/>
       <c r="N263"/>
       <c r="O263"/>
       <c r="P263"/>
@@ -13468,14 +13470,14 @@
       <c r="E264" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F264"/>
+      <c r="F264" t="s">
+        <v>298</v>
+      </c>
       <c r="G264"/>
       <c r="H264"/>
       <c r="I264"/>
       <c r="J264"/>
-      <c r="K264" t="s">
-        <v>298</v>
-      </c>
+      <c r="K264"/>
       <c r="L264"/>
       <c r="M264"/>
       <c r="N264"/>
@@ -13495,13 +13497,13 @@
         <v>299</v>
       </c>
       <c r="B265" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C265" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D265" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E265" t="n">
         <v>5.26315789473684</v>
@@ -13512,15 +13514,15 @@
       <c r="I265"/>
       <c r="J265"/>
       <c r="K265"/>
-      <c r="L265"/>
+      <c r="L265" t="s">
+        <v>299</v>
+      </c>
       <c r="M265"/>
       <c r="N265"/>
       <c r="O265"/>
       <c r="P265"/>
       <c r="Q265"/>
-      <c r="R265" t="s">
-        <v>299</v>
-      </c>
+      <c r="R265"/>
       <c r="S265"/>
       <c r="T265"/>
       <c r="U265"/>
@@ -13533,13 +13535,13 @@
         <v>300</v>
       </c>
       <c r="B266" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C266" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E266" t="n">
         <v>5.26315789473684</v>
@@ -13549,11 +13551,11 @@
       <c r="H266"/>
       <c r="I266"/>
       <c r="J266"/>
-      <c r="K266"/>
+      <c r="K266" t="s">
+        <v>300</v>
+      </c>
       <c r="L266"/>
-      <c r="M266" t="s">
-        <v>300</v>
-      </c>
+      <c r="M266"/>
       <c r="N266"/>
       <c r="O266"/>
       <c r="P266"/>
@@ -13571,13 +13573,13 @@
         <v>301</v>
       </c>
       <c r="B267" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C267" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E267" t="n">
         <v>5.26315789473684</v>
@@ -13589,14 +13591,14 @@
       <c r="J267"/>
       <c r="K267"/>
       <c r="L267"/>
-      <c r="M267" t="s">
-        <v>301</v>
-      </c>
+      <c r="M267"/>
       <c r="N267"/>
       <c r="O267"/>
       <c r="P267"/>
       <c r="Q267"/>
-      <c r="R267"/>
+      <c r="R267" t="s">
+        <v>301</v>
+      </c>
       <c r="S267"/>
       <c r="T267"/>
       <c r="U267"/>
@@ -13647,13 +13649,13 @@
         <v>303</v>
       </c>
       <c r="B269" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C269" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D269" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E269" t="n">
         <v>5.26315789473684</v>
@@ -13665,14 +13667,14 @@
       <c r="J269"/>
       <c r="K269"/>
       <c r="L269"/>
-      <c r="M269"/>
+      <c r="M269" t="s">
+        <v>303</v>
+      </c>
       <c r="N269"/>
       <c r="O269"/>
       <c r="P269"/>
       <c r="Q269"/>
-      <c r="R269" t="s">
-        <v>303</v>
-      </c>
+      <c r="R269"/>
       <c r="S269"/>
       <c r="T269"/>
       <c r="U269"/>
@@ -13685,27 +13687,27 @@
         <v>304</v>
       </c>
       <c r="B270" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D270" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E270" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F270"/>
-      <c r="G270" t="s">
-        <v>304</v>
-      </c>
+      <c r="G270"/>
       <c r="H270"/>
       <c r="I270"/>
       <c r="J270"/>
       <c r="K270"/>
       <c r="L270"/>
-      <c r="M270"/>
+      <c r="M270" t="s">
+        <v>304</v>
+      </c>
       <c r="N270"/>
       <c r="O270"/>
       <c r="P270"/>
@@ -13723,13 +13725,13 @@
         <v>305</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C271" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D271" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E271" t="n">
         <v>5.26315789473684</v>
@@ -13739,16 +13741,16 @@
       <c r="H271"/>
       <c r="I271"/>
       <c r="J271"/>
-      <c r="K271" t="s">
-        <v>305</v>
-      </c>
+      <c r="K271"/>
       <c r="L271"/>
       <c r="M271"/>
       <c r="N271"/>
       <c r="O271"/>
       <c r="P271"/>
       <c r="Q271"/>
-      <c r="R271"/>
+      <c r="R271" t="s">
+        <v>305</v>
+      </c>
       <c r="S271"/>
       <c r="T271"/>
       <c r="U271"/>
@@ -13761,19 +13763,21 @@
         <v>306</v>
       </c>
       <c r="B272" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C272" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E272" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F272"/>
-      <c r="G272"/>
+      <c r="G272" t="s">
+        <v>306</v>
+      </c>
       <c r="H272"/>
       <c r="I272"/>
       <c r="J272"/>
@@ -13782,9 +13786,7 @@
       <c r="M272"/>
       <c r="N272"/>
       <c r="O272"/>
-      <c r="P272" t="s">
-        <v>306</v>
-      </c>
+      <c r="P272"/>
       <c r="Q272"/>
       <c r="R272"/>
       <c r="S272"/>
@@ -13815,14 +13817,14 @@
       <c r="H273"/>
       <c r="I273"/>
       <c r="J273"/>
-      <c r="K273"/>
+      <c r="K273" t="s">
+        <v>307</v>
+      </c>
       <c r="L273"/>
       <c r="M273"/>
       <c r="N273"/>
       <c r="O273"/>
-      <c r="P273" t="s">
-        <v>307</v>
-      </c>
+      <c r="P273"/>
       <c r="Q273"/>
       <c r="R273"/>
       <c r="S273"/>
@@ -13837,13 +13839,13 @@
         <v>308</v>
       </c>
       <c r="B274" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D274" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E274" t="n">
         <v>5.26315789473684</v>
@@ -13851,16 +13853,16 @@
       <c r="F274"/>
       <c r="G274"/>
       <c r="H274"/>
-      <c r="I274" t="s">
-        <v>308</v>
-      </c>
+      <c r="I274"/>
       <c r="J274"/>
       <c r="K274"/>
       <c r="L274"/>
       <c r="M274"/>
       <c r="N274"/>
       <c r="O274"/>
-      <c r="P274"/>
+      <c r="P274" t="s">
+        <v>308</v>
+      </c>
       <c r="Q274"/>
       <c r="R274"/>
       <c r="S274"/>
@@ -13891,14 +13893,14 @@
       <c r="H275"/>
       <c r="I275"/>
       <c r="J275"/>
-      <c r="K275" t="s">
-        <v>309</v>
-      </c>
+      <c r="K275"/>
       <c r="L275"/>
       <c r="M275"/>
       <c r="N275"/>
       <c r="O275"/>
-      <c r="P275"/>
+      <c r="P275" t="s">
+        <v>309</v>
+      </c>
       <c r="Q275"/>
       <c r="R275"/>
       <c r="S275"/>
@@ -13927,11 +13929,11 @@
       <c r="F276"/>
       <c r="G276"/>
       <c r="H276"/>
-      <c r="I276"/>
+      <c r="I276" t="s">
+        <v>310</v>
+      </c>
       <c r="J276"/>
-      <c r="K276" t="s">
-        <v>310</v>
-      </c>
+      <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
       <c r="N276"/>
@@ -13967,7 +13969,9 @@
       <c r="H277"/>
       <c r="I277"/>
       <c r="J277"/>
-      <c r="K277"/>
+      <c r="K277" t="s">
+        <v>311</v>
+      </c>
       <c r="L277"/>
       <c r="M277"/>
       <c r="N277"/>
@@ -13978,9 +13982,7 @@
       <c r="S277"/>
       <c r="T277"/>
       <c r="U277"/>
-      <c r="V277" t="s">
-        <v>311</v>
-      </c>
+      <c r="V277"/>
       <c r="W277"/>
       <c r="X277"/>
     </row>
@@ -13989,25 +13991,25 @@
         <v>312</v>
       </c>
       <c r="B278" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C278" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E278" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F278"/>
-      <c r="G278" t="s">
-        <v>312</v>
-      </c>
+      <c r="G278"/>
       <c r="H278"/>
       <c r="I278"/>
       <c r="J278"/>
-      <c r="K278"/>
+      <c r="K278" t="s">
+        <v>312</v>
+      </c>
       <c r="L278"/>
       <c r="M278"/>
       <c r="N278"/>
@@ -14027,13 +14029,13 @@
         <v>313</v>
       </c>
       <c r="B279" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C279" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E279" t="n">
         <v>5.26315789473684</v>
@@ -14049,14 +14051,14 @@
       <c r="N279"/>
       <c r="O279"/>
       <c r="P279"/>
-      <c r="Q279" t="s">
-        <v>313</v>
-      </c>
+      <c r="Q279"/>
       <c r="R279"/>
       <c r="S279"/>
       <c r="T279"/>
       <c r="U279"/>
-      <c r="V279"/>
+      <c r="V279" t="s">
+        <v>313</v>
+      </c>
       <c r="W279"/>
       <c r="X279"/>
     </row>
@@ -14065,25 +14067,25 @@
         <v>314</v>
       </c>
       <c r="B280" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C280" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D280" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E280" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F280"/>
-      <c r="G280"/>
+      <c r="G280" t="s">
+        <v>314</v>
+      </c>
       <c r="H280"/>
       <c r="I280"/>
       <c r="J280"/>
-      <c r="K280" t="s">
-        <v>314</v>
-      </c>
+      <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
       <c r="N280"/>
@@ -14103,20 +14105,18 @@
         <v>315</v>
       </c>
       <c r="B281" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D281" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E281" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F281" t="s">
-        <v>315</v>
-      </c>
+      <c r="F281"/>
       <c r="G281"/>
       <c r="H281"/>
       <c r="I281"/>
@@ -14127,7 +14127,9 @@
       <c r="N281"/>
       <c r="O281"/>
       <c r="P281"/>
-      <c r="Q281"/>
+      <c r="Q281" t="s">
+        <v>315</v>
+      </c>
       <c r="R281"/>
       <c r="S281"/>
       <c r="T281"/>
@@ -14141,13 +14143,13 @@
         <v>316</v>
       </c>
       <c r="B282" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C282" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D282" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E282" t="n">
         <v>5.26315789473684</v>
@@ -14157,11 +14159,11 @@
       <c r="H282"/>
       <c r="I282"/>
       <c r="J282"/>
-      <c r="K282"/>
+      <c r="K282" t="s">
+        <v>316</v>
+      </c>
       <c r="L282"/>
-      <c r="M282" t="s">
-        <v>316</v>
-      </c>
+      <c r="M282"/>
       <c r="N282"/>
       <c r="O282"/>
       <c r="P282"/>
@@ -14190,7 +14192,9 @@
       <c r="E283" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F283"/>
+      <c r="F283" t="s">
+        <v>317</v>
+      </c>
       <c r="G283"/>
       <c r="H283"/>
       <c r="I283"/>
@@ -14198,9 +14202,7 @@
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
-      <c r="N283" t="s">
-        <v>317</v>
-      </c>
+      <c r="N283"/>
       <c r="O283"/>
       <c r="P283"/>
       <c r="Q283"/>
@@ -14217,13 +14219,13 @@
         <v>318</v>
       </c>
       <c r="B284" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C284" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D284" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E284" t="n">
         <v>5.26315789473684</v>
@@ -14233,11 +14235,11 @@
       <c r="H284"/>
       <c r="I284"/>
       <c r="J284"/>
-      <c r="K284" t="s">
+      <c r="K284"/>
+      <c r="L284"/>
+      <c r="M284" t="s">
         <v>318</v>
       </c>
-      <c r="L284"/>
-      <c r="M284"/>
       <c r="N284"/>
       <c r="O284"/>
       <c r="P284"/>
@@ -14255,28 +14257,28 @@
         <v>319</v>
       </c>
       <c r="B285" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C285" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E285" t="n">
         <v>5.26315789473684</v>
       </c>
       <c r="F285"/>
       <c r="G285"/>
-      <c r="H285" t="s">
-        <v>319</v>
-      </c>
+      <c r="H285"/>
       <c r="I285"/>
       <c r="J285"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
-      <c r="N285"/>
+      <c r="N285" t="s">
+        <v>319</v>
+      </c>
       <c r="O285"/>
       <c r="P285"/>
       <c r="Q285"/>
@@ -14293,13 +14295,13 @@
         <v>320</v>
       </c>
       <c r="B286" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C286" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E286" t="n">
         <v>5.26315789473684</v>
@@ -14307,11 +14309,11 @@
       <c r="F286"/>
       <c r="G286"/>
       <c r="H286"/>
-      <c r="I286" t="s">
+      <c r="I286"/>
+      <c r="J286"/>
+      <c r="K286" t="s">
         <v>320</v>
       </c>
-      <c r="J286"/>
-      <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
       <c r="N286"/>
@@ -14331,22 +14333,22 @@
         <v>321</v>
       </c>
       <c r="B287" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C287" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E287" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F287"/>
+      <c r="G287"/>
+      <c r="H287" t="s">
         <v>321</v>
       </c>
-      <c r="G287"/>
-      <c r="H287"/>
       <c r="I287"/>
       <c r="J287"/>
       <c r="K287"/>
@@ -14381,11 +14383,11 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F288"/>
-      <c r="G288" t="s">
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288" t="s">
         <v>322</v>
       </c>
-      <c r="H288"/>
-      <c r="I288"/>
       <c r="J288"/>
       <c r="K288"/>
       <c r="L288"/>
@@ -14407,21 +14409,21 @@
         <v>323</v>
       </c>
       <c r="B289" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D289" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E289" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F289"/>
-      <c r="G289" t="s">
+      <c r="F289" t="s">
         <v>323</v>
       </c>
+      <c r="G289"/>
       <c r="H289"/>
       <c r="I289"/>
       <c r="J289"/>
@@ -14445,21 +14447,21 @@
         <v>324</v>
       </c>
       <c r="B290" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E290" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F290"/>
+      <c r="G290" t="s">
         <v>324</v>
       </c>
-      <c r="G290"/>
       <c r="H290"/>
       <c r="I290"/>
       <c r="J290"/>
@@ -14494,10 +14496,10 @@
       <c r="E291" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291"/>
+      <c r="G291" t="s">
         <v>325</v>
       </c>
-      <c r="G291"/>
       <c r="H291"/>
       <c r="I291"/>
       <c r="J291"/>
@@ -14532,14 +14534,14 @@
       <c r="E292" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F292"/>
+      <c r="F292" t="s">
+        <v>326</v>
+      </c>
       <c r="G292"/>
       <c r="H292"/>
       <c r="I292"/>
       <c r="J292"/>
-      <c r="K292" t="s">
-        <v>326</v>
-      </c>
+      <c r="K292"/>
       <c r="L292"/>
       <c r="M292"/>
       <c r="N292"/>
@@ -14570,14 +14572,14 @@
       <c r="E293" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F293"/>
+      <c r="F293" t="s">
+        <v>327</v>
+      </c>
       <c r="G293"/>
       <c r="H293"/>
       <c r="I293"/>
       <c r="J293"/>
-      <c r="K293" t="s">
-        <v>327</v>
-      </c>
+      <c r="K293"/>
       <c r="L293"/>
       <c r="M293"/>
       <c r="N293"/>
@@ -14597,25 +14599,25 @@
         <v>328</v>
       </c>
       <c r="B294" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C294" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D294" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E294" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F294" t="s">
-        <v>328</v>
-      </c>
+      <c r="F294"/>
       <c r="G294"/>
       <c r="H294"/>
       <c r="I294"/>
       <c r="J294"/>
-      <c r="K294"/>
+      <c r="K294" t="s">
+        <v>328</v>
+      </c>
       <c r="L294"/>
       <c r="M294"/>
       <c r="N294"/>
@@ -14646,14 +14648,14 @@
       <c r="E295" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F295" t="s">
-        <v>329</v>
-      </c>
+      <c r="F295"/>
       <c r="G295"/>
       <c r="H295"/>
       <c r="I295"/>
       <c r="J295"/>
-      <c r="K295"/>
+      <c r="K295" t="s">
+        <v>329</v>
+      </c>
       <c r="L295"/>
       <c r="M295"/>
       <c r="N295"/>
@@ -14673,22 +14675,22 @@
         <v>330</v>
       </c>
       <c r="B296" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C296" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D296" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E296" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F296"/>
+      <c r="F296" t="s">
+        <v>330</v>
+      </c>
       <c r="G296"/>
-      <c r="H296" t="s">
-        <v>330</v>
-      </c>
+      <c r="H296"/>
       <c r="I296"/>
       <c r="J296"/>
       <c r="K296"/>
@@ -14711,23 +14713,23 @@
         <v>331</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C297" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E297" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F297"/>
+      <c r="F297" t="s">
+        <v>331</v>
+      </c>
       <c r="G297"/>
       <c r="H297"/>
-      <c r="I297" t="s">
-        <v>331</v>
-      </c>
+      <c r="I297"/>
       <c r="J297"/>
       <c r="K297"/>
       <c r="L297"/>
@@ -14749,22 +14751,22 @@
         <v>332</v>
       </c>
       <c r="B298" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C298" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D298" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E298" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F298"/>
+      <c r="G298"/>
+      <c r="H298" t="s">
         <v>332</v>
       </c>
-      <c r="G298"/>
-      <c r="H298"/>
       <c r="I298"/>
       <c r="J298"/>
       <c r="K298"/>
@@ -14799,11 +14801,11 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F299"/>
-      <c r="G299" t="s">
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299" t="s">
         <v>333</v>
       </c>
-      <c r="H299"/>
-      <c r="I299"/>
       <c r="J299"/>
       <c r="K299"/>
       <c r="L299"/>
@@ -14825,18 +14827,20 @@
         <v>334</v>
       </c>
       <c r="B300" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C300" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D300" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E300" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F300"/>
+      <c r="F300" t="s">
+        <v>334</v>
+      </c>
       <c r="G300"/>
       <c r="H300"/>
       <c r="I300"/>
@@ -14846,9 +14850,7 @@
       <c r="M300"/>
       <c r="N300"/>
       <c r="O300"/>
-      <c r="P300" t="s">
-        <v>334</v>
-      </c>
+      <c r="P300"/>
       <c r="Q300"/>
       <c r="R300"/>
       <c r="S300"/>
@@ -14875,7 +14877,9 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F301"/>
-      <c r="G301"/>
+      <c r="G301" t="s">
+        <v>335</v>
+      </c>
       <c r="H301"/>
       <c r="I301"/>
       <c r="J301"/>
@@ -14886,9 +14890,7 @@
       <c r="O301"/>
       <c r="P301"/>
       <c r="Q301"/>
-      <c r="R301" t="s">
-        <v>335</v>
-      </c>
+      <c r="R301"/>
       <c r="S301"/>
       <c r="T301"/>
       <c r="U301"/>
@@ -14901,13 +14903,13 @@
         <v>336</v>
       </c>
       <c r="B302" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C302" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D302" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E302" t="n">
         <v>5.26315789473684</v>
@@ -14960,11 +14962,11 @@
       <c r="M303"/>
       <c r="N303"/>
       <c r="O303"/>
-      <c r="P303" t="s">
+      <c r="P303"/>
+      <c r="Q303"/>
+      <c r="R303" t="s">
         <v>337</v>
       </c>
-      <c r="Q303"/>
-      <c r="R303"/>
       <c r="S303"/>
       <c r="T303"/>
       <c r="U303"/>
@@ -14977,20 +14979,18 @@
         <v>338</v>
       </c>
       <c r="B304" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C304" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D304" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E304" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F304" t="s">
-        <v>338</v>
-      </c>
+      <c r="F304"/>
       <c r="G304"/>
       <c r="H304"/>
       <c r="I304"/>
@@ -15000,7 +15000,9 @@
       <c r="M304"/>
       <c r="N304"/>
       <c r="O304"/>
-      <c r="P304"/>
+      <c r="P304" t="s">
+        <v>338</v>
+      </c>
       <c r="Q304"/>
       <c r="R304"/>
       <c r="S304"/>
@@ -15015,20 +15017,18 @@
         <v>339</v>
       </c>
       <c r="B305" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D305" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E305" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F305" t="s">
-        <v>339</v>
-      </c>
+      <c r="F305"/>
       <c r="G305"/>
       <c r="H305"/>
       <c r="I305"/>
@@ -15038,7 +15038,9 @@
       <c r="M305"/>
       <c r="N305"/>
       <c r="O305"/>
-      <c r="P305"/>
+      <c r="P305" t="s">
+        <v>339</v>
+      </c>
       <c r="Q305"/>
       <c r="R305"/>
       <c r="S305"/>
@@ -15064,7 +15066,9 @@
       <c r="E306" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F306"/>
+      <c r="F306" t="s">
+        <v>340</v>
+      </c>
       <c r="G306"/>
       <c r="H306"/>
       <c r="I306"/>
@@ -15076,9 +15080,7 @@
       <c r="O306"/>
       <c r="P306"/>
       <c r="Q306"/>
-      <c r="R306" t="s">
-        <v>340</v>
-      </c>
+      <c r="R306"/>
       <c r="S306"/>
       <c r="T306"/>
       <c r="U306"/>
@@ -15140,9 +15142,7 @@
       <c r="E308" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F308" t="s">
-        <v>342</v>
-      </c>
+      <c r="F308"/>
       <c r="G308"/>
       <c r="H308"/>
       <c r="I308"/>
@@ -15154,7 +15154,9 @@
       <c r="O308"/>
       <c r="P308"/>
       <c r="Q308"/>
-      <c r="R308"/>
+      <c r="R308" t="s">
+        <v>342</v>
+      </c>
       <c r="S308"/>
       <c r="T308"/>
       <c r="U308"/>
@@ -15216,12 +15218,12 @@
       <c r="E310" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F310"/>
+      <c r="F310" t="s">
+        <v>344</v>
+      </c>
       <c r="G310"/>
       <c r="H310"/>
-      <c r="I310" t="s">
-        <v>344</v>
-      </c>
+      <c r="I310"/>
       <c r="J310"/>
       <c r="K310"/>
       <c r="L310"/>
@@ -15243,18 +15245,20 @@
         <v>345</v>
       </c>
       <c r="B311" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C311" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E311" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F311"/>
+      <c r="F311" t="s">
+        <v>345</v>
+      </c>
       <c r="G311"/>
       <c r="H311"/>
       <c r="I311"/>
@@ -15262,9 +15266,7 @@
       <c r="K311"/>
       <c r="L311"/>
       <c r="M311"/>
-      <c r="N311" t="s">
-        <v>345</v>
-      </c>
+      <c r="N311"/>
       <c r="O311"/>
       <c r="P311"/>
       <c r="Q311"/>
@@ -15319,13 +15321,13 @@
         <v>347</v>
       </c>
       <c r="B313" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C313" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D313" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E313" t="n">
         <v>5.26315789473684</v>
@@ -15338,12 +15340,12 @@
       <c r="K313"/>
       <c r="L313"/>
       <c r="M313"/>
-      <c r="N313"/>
+      <c r="N313" t="s">
+        <v>347</v>
+      </c>
       <c r="O313"/>
       <c r="P313"/>
-      <c r="Q313" t="s">
-        <v>347</v>
-      </c>
+      <c r="Q313"/>
       <c r="R313"/>
       <c r="S313"/>
       <c r="T313"/>
@@ -15370,10 +15372,10 @@
       </c>
       <c r="F314"/>
       <c r="G314"/>
-      <c r="H314" t="s">
+      <c r="H314"/>
+      <c r="I314" t="s">
         <v>348</v>
       </c>
-      <c r="I314"/>
       <c r="J314"/>
       <c r="K314"/>
       <c r="L314"/>
@@ -15407,9 +15409,7 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F315"/>
-      <c r="G315" t="s">
-        <v>349</v>
-      </c>
+      <c r="G315"/>
       <c r="H315"/>
       <c r="I315"/>
       <c r="J315"/>
@@ -15419,7 +15419,9 @@
       <c r="N315"/>
       <c r="O315"/>
       <c r="P315"/>
-      <c r="Q315"/>
+      <c r="Q315" t="s">
+        <v>349</v>
+      </c>
       <c r="R315"/>
       <c r="S315"/>
       <c r="T315"/>
@@ -15445,10 +15447,10 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F316"/>
-      <c r="G316" t="s">
+      <c r="G316"/>
+      <c r="H316" t="s">
         <v>350</v>
       </c>
-      <c r="H316"/>
       <c r="I316"/>
       <c r="J316"/>
       <c r="K316"/>
@@ -15482,10 +15484,10 @@
       <c r="E317" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317"/>
+      <c r="G317" t="s">
         <v>351</v>
       </c>
-      <c r="G317"/>
       <c r="H317"/>
       <c r="I317"/>
       <c r="J317"/>
@@ -15558,10 +15560,10 @@
       <c r="E319" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F319"/>
-      <c r="G319" t="s">
+      <c r="F319" t="s">
         <v>353</v>
       </c>
+      <c r="G319"/>
       <c r="H319"/>
       <c r="I319"/>
       <c r="J319"/>
@@ -15635,13 +15637,13 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F321"/>
-      <c r="G321"/>
+      <c r="G321" t="s">
+        <v>355</v>
+      </c>
       <c r="H321"/>
       <c r="I321"/>
       <c r="J321"/>
-      <c r="K321" t="s">
-        <v>355</v>
-      </c>
+      <c r="K321"/>
       <c r="L321"/>
       <c r="M321"/>
       <c r="N321"/>
@@ -15661,13 +15663,13 @@
         <v>356</v>
       </c>
       <c r="B322" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C322" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E322" t="n">
         <v>5.26315789473684</v>
@@ -15677,11 +15679,11 @@
       <c r="H322"/>
       <c r="I322"/>
       <c r="J322"/>
-      <c r="K322"/>
+      <c r="K322" t="s">
+        <v>356</v>
+      </c>
       <c r="L322"/>
-      <c r="M322" t="s">
-        <v>356</v>
-      </c>
+      <c r="M322"/>
       <c r="N322"/>
       <c r="O322"/>
       <c r="P322"/>
@@ -15699,13 +15701,13 @@
         <v>357</v>
       </c>
       <c r="B323" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C323" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D323" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E323" t="n">
         <v>5.26315789473684</v>
@@ -15717,13 +15719,13 @@
       <c r="J323"/>
       <c r="K323"/>
       <c r="L323"/>
-      <c r="M323"/>
+      <c r="M323" t="s">
+        <v>357</v>
+      </c>
       <c r="N323"/>
       <c r="O323"/>
       <c r="P323"/>
-      <c r="Q323" t="s">
-        <v>357</v>
-      </c>
+      <c r="Q323"/>
       <c r="R323"/>
       <c r="S323"/>
       <c r="T323"/>
@@ -15748,9 +15750,7 @@
       <c r="E324" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F324" t="s">
-        <v>358</v>
-      </c>
+      <c r="F324"/>
       <c r="G324"/>
       <c r="H324"/>
       <c r="I324"/>
@@ -15761,7 +15761,9 @@
       <c r="N324"/>
       <c r="O324"/>
       <c r="P324"/>
-      <c r="Q324"/>
+      <c r="Q324" t="s">
+        <v>358</v>
+      </c>
       <c r="R324"/>
       <c r="S324"/>
       <c r="T324"/>
@@ -15786,10 +15788,10 @@
       <c r="E325" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F325"/>
-      <c r="G325" t="s">
+      <c r="F325" t="s">
         <v>359</v>
       </c>
+      <c r="G325"/>
       <c r="H325"/>
       <c r="I325"/>
       <c r="J325"/>
@@ -15863,10 +15865,10 @@
         <v>5.26315789473684</v>
       </c>
       <c r="F327"/>
-      <c r="G327"/>
-      <c r="H327" t="s">
+      <c r="G327" t="s">
         <v>361</v>
       </c>
+      <c r="H327"/>
       <c r="I327"/>
       <c r="J327"/>
       <c r="K327"/>
@@ -15900,11 +15902,11 @@
       <c r="E328" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328"/>
+      <c r="G328"/>
+      <c r="H328" t="s">
         <v>362</v>
       </c>
-      <c r="G328"/>
-      <c r="H328"/>
       <c r="I328"/>
       <c r="J328"/>
       <c r="K328"/>
@@ -15938,14 +15940,14 @@
       <c r="E329" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F329"/>
+      <c r="F329" t="s">
+        <v>363</v>
+      </c>
       <c r="G329"/>
       <c r="H329"/>
       <c r="I329"/>
       <c r="J329"/>
-      <c r="K329" t="s">
-        <v>363</v>
-      </c>
+      <c r="K329"/>
       <c r="L329"/>
       <c r="M329"/>
       <c r="N329"/>
@@ -15981,15 +15983,15 @@
       <c r="H330"/>
       <c r="I330"/>
       <c r="J330"/>
-      <c r="K330"/>
+      <c r="K330" t="s">
+        <v>364</v>
+      </c>
       <c r="L330"/>
       <c r="M330"/>
       <c r="N330"/>
       <c r="O330"/>
       <c r="P330"/>
-      <c r="Q330" t="s">
-        <v>364</v>
-      </c>
+      <c r="Q330"/>
       <c r="R330"/>
       <c r="S330"/>
       <c r="T330"/>
@@ -16021,13 +16023,13 @@
       <c r="J331"/>
       <c r="K331"/>
       <c r="L331"/>
-      <c r="M331" t="s">
-        <v>365</v>
-      </c>
+      <c r="M331"/>
       <c r="N331"/>
       <c r="O331"/>
       <c r="P331"/>
-      <c r="Q331"/>
+      <c r="Q331" t="s">
+        <v>365</v>
+      </c>
       <c r="R331"/>
       <c r="S331"/>
       <c r="T331"/>
@@ -16097,14 +16099,14 @@
       <c r="J333"/>
       <c r="K333"/>
       <c r="L333"/>
-      <c r="M333"/>
+      <c r="M333" t="s">
+        <v>367</v>
+      </c>
       <c r="N333"/>
       <c r="O333"/>
       <c r="P333"/>
       <c r="Q333"/>
-      <c r="R333" t="s">
-        <v>367</v>
-      </c>
+      <c r="R333"/>
       <c r="S333"/>
       <c r="T333"/>
       <c r="U333"/>
@@ -16171,16 +16173,16 @@
       <c r="H335"/>
       <c r="I335"/>
       <c r="J335"/>
-      <c r="K335" t="s">
-        <v>369</v>
-      </c>
+      <c r="K335"/>
       <c r="L335"/>
       <c r="M335"/>
       <c r="N335"/>
       <c r="O335"/>
       <c r="P335"/>
       <c r="Q335"/>
-      <c r="R335"/>
+      <c r="R335" t="s">
+        <v>369</v>
+      </c>
       <c r="S335"/>
       <c r="T335"/>
       <c r="U335"/>
@@ -16207,11 +16209,11 @@
       <c r="F336"/>
       <c r="G336"/>
       <c r="H336"/>
-      <c r="I336" t="s">
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336" t="s">
         <v>370</v>
       </c>
-      <c r="J336"/>
-      <c r="K336"/>
       <c r="L336"/>
       <c r="M336"/>
       <c r="N336"/>
@@ -16245,11 +16247,11 @@
       <c r="F337"/>
       <c r="G337"/>
       <c r="H337"/>
-      <c r="I337"/>
+      <c r="I337" t="s">
+        <v>371</v>
+      </c>
       <c r="J337"/>
-      <c r="K337" t="s">
-        <v>371</v>
-      </c>
+      <c r="K337"/>
       <c r="L337"/>
       <c r="M337"/>
       <c r="N337"/>
@@ -16283,11 +16285,11 @@
       <c r="F338"/>
       <c r="G338"/>
       <c r="H338"/>
-      <c r="I338" t="s">
+      <c r="I338"/>
+      <c r="J338"/>
+      <c r="K338" t="s">
         <v>372</v>
       </c>
-      <c r="J338"/>
-      <c r="K338"/>
       <c r="L338"/>
       <c r="M338"/>
       <c r="N338"/>
@@ -16318,12 +16320,12 @@
       <c r="E339" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F339" t="s">
-        <v>373</v>
-      </c>
+      <c r="F339"/>
       <c r="G339"/>
       <c r="H339"/>
-      <c r="I339"/>
+      <c r="I339" t="s">
+        <v>373</v>
+      </c>
       <c r="J339"/>
       <c r="K339"/>
       <c r="L339"/>
@@ -16345,27 +16347,27 @@
         <v>374</v>
       </c>
       <c r="B340" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C340" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D340" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E340" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F340"/>
+      <c r="F340" t="s">
+        <v>374</v>
+      </c>
       <c r="G340"/>
       <c r="H340"/>
       <c r="I340"/>
       <c r="J340"/>
       <c r="K340"/>
       <c r="L340"/>
-      <c r="M340" t="s">
-        <v>374</v>
-      </c>
+      <c r="M340"/>
       <c r="N340"/>
       <c r="O340"/>
       <c r="P340"/>
@@ -16383,27 +16385,27 @@
         <v>375</v>
       </c>
       <c r="B341" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C341" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D341" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E341" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F341" t="s">
-        <v>375</v>
-      </c>
+      <c r="F341"/>
       <c r="G341"/>
       <c r="H341"/>
       <c r="I341"/>
       <c r="J341"/>
       <c r="K341"/>
       <c r="L341"/>
-      <c r="M341"/>
+      <c r="M341" t="s">
+        <v>375</v>
+      </c>
       <c r="N341"/>
       <c r="O341"/>
       <c r="P341"/>
@@ -16459,18 +16461,20 @@
         <v>377</v>
       </c>
       <c r="B343" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C343" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E343" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F343"/>
+      <c r="F343" t="s">
+        <v>377</v>
+      </c>
       <c r="G343"/>
       <c r="H343"/>
       <c r="I343"/>
@@ -16480,9 +16484,7 @@
       <c r="M343"/>
       <c r="N343"/>
       <c r="O343"/>
-      <c r="P343" t="s">
-        <v>377</v>
-      </c>
+      <c r="P343"/>
       <c r="Q343"/>
       <c r="R343"/>
       <c r="S343"/>
@@ -16497,13 +16499,13 @@
         <v>378</v>
       </c>
       <c r="B344" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C344" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D344" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E344" t="n">
         <v>5.26315789473684</v>
@@ -16515,12 +16517,12 @@
       <c r="J344"/>
       <c r="K344"/>
       <c r="L344"/>
-      <c r="M344" t="s">
-        <v>378</v>
-      </c>
+      <c r="M344"/>
       <c r="N344"/>
       <c r="O344"/>
-      <c r="P344"/>
+      <c r="P344" t="s">
+        <v>378</v>
+      </c>
       <c r="Q344"/>
       <c r="R344"/>
       <c r="S344"/>
@@ -16546,16 +16548,16 @@
       <c r="E345" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F345" t="s">
-        <v>379</v>
-      </c>
+      <c r="F345"/>
       <c r="G345"/>
       <c r="H345"/>
       <c r="I345"/>
       <c r="J345"/>
       <c r="K345"/>
       <c r="L345"/>
-      <c r="M345"/>
+      <c r="M345" t="s">
+        <v>379</v>
+      </c>
       <c r="N345"/>
       <c r="O345"/>
       <c r="P345"/>
@@ -16584,12 +16586,12 @@
       <c r="E346" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F346"/>
+      <c r="F346" t="s">
+        <v>380</v>
+      </c>
       <c r="G346"/>
       <c r="H346"/>
-      <c r="I346" t="s">
-        <v>380</v>
-      </c>
+      <c r="I346"/>
       <c r="J346"/>
       <c r="K346"/>
       <c r="L346"/>
@@ -16611,13 +16613,13 @@
         <v>381</v>
       </c>
       <c r="B347" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C347" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D347" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E347" t="n">
         <v>5.26315789473684</v>
@@ -16625,7 +16627,9 @@
       <c r="F347"/>
       <c r="G347"/>
       <c r="H347"/>
-      <c r="I347"/>
+      <c r="I347" t="s">
+        <v>381</v>
+      </c>
       <c r="J347"/>
       <c r="K347"/>
       <c r="L347"/>
@@ -16634,9 +16638,7 @@
       <c r="O347"/>
       <c r="P347"/>
       <c r="Q347"/>
-      <c r="R347" t="s">
-        <v>381</v>
-      </c>
+      <c r="R347"/>
       <c r="S347"/>
       <c r="T347"/>
       <c r="U347"/>
@@ -16649,13 +16651,13 @@
         <v>382</v>
       </c>
       <c r="B348" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C348" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E348" t="n">
         <v>5.26315789473684</v>
@@ -16687,20 +16689,18 @@
         <v>383</v>
       </c>
       <c r="B349" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C349" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D349" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E349" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F349" t="s">
-        <v>383</v>
-      </c>
+      <c r="F349"/>
       <c r="G349"/>
       <c r="H349"/>
       <c r="I349"/>
@@ -16712,7 +16712,9 @@
       <c r="O349"/>
       <c r="P349"/>
       <c r="Q349"/>
-      <c r="R349"/>
+      <c r="R349" t="s">
+        <v>383</v>
+      </c>
       <c r="S349"/>
       <c r="T349"/>
       <c r="U349"/>
@@ -16736,14 +16738,14 @@
       <c r="E350" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F350"/>
+      <c r="F350" t="s">
+        <v>384</v>
+      </c>
       <c r="G350"/>
       <c r="H350"/>
       <c r="I350"/>
       <c r="J350"/>
-      <c r="K350" t="s">
-        <v>384</v>
-      </c>
+      <c r="K350"/>
       <c r="L350"/>
       <c r="M350"/>
       <c r="N350"/>
@@ -16839,13 +16841,13 @@
         <v>387</v>
       </c>
       <c r="B353" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C353" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E353" t="n">
         <v>5.26315789473684</v>
@@ -16855,7 +16857,9 @@
       <c r="H353"/>
       <c r="I353"/>
       <c r="J353"/>
-      <c r="K353"/>
+      <c r="K353" t="s">
+        <v>387</v>
+      </c>
       <c r="L353"/>
       <c r="M353"/>
       <c r="N353"/>
@@ -16863,9 +16867,7 @@
       <c r="P353"/>
       <c r="Q353"/>
       <c r="R353"/>
-      <c r="S353" t="s">
-        <v>387</v>
-      </c>
+      <c r="S353"/>
       <c r="T353"/>
       <c r="U353"/>
       <c r="V353"/>
@@ -16897,13 +16899,13 @@
       <c r="L354"/>
       <c r="M354"/>
       <c r="N354"/>
-      <c r="O354" t="s">
-        <v>388</v>
-      </c>
+      <c r="O354"/>
       <c r="P354"/>
       <c r="Q354"/>
       <c r="R354"/>
-      <c r="S354"/>
+      <c r="S354" t="s">
+        <v>388</v>
+      </c>
       <c r="T354"/>
       <c r="U354"/>
       <c r="V354"/>
@@ -16915,20 +16917,18 @@
         <v>389</v>
       </c>
       <c r="B355" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C355" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D355" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E355" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F355" t="s">
-        <v>389</v>
-      </c>
+      <c r="F355"/>
       <c r="G355"/>
       <c r="H355"/>
       <c r="I355"/>
@@ -16937,7 +16937,9 @@
       <c r="L355"/>
       <c r="M355"/>
       <c r="N355"/>
-      <c r="O355"/>
+      <c r="O355" t="s">
+        <v>389</v>
+      </c>
       <c r="P355"/>
       <c r="Q355"/>
       <c r="R355"/>
@@ -16991,18 +16993,20 @@
         <v>391</v>
       </c>
       <c r="B357" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C357" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D357" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E357" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F357"/>
+      <c r="F357" t="s">
+        <v>391</v>
+      </c>
       <c r="G357"/>
       <c r="H357"/>
       <c r="I357"/>
@@ -17013,9 +17017,7 @@
       <c r="N357"/>
       <c r="O357"/>
       <c r="P357"/>
-      <c r="Q357" t="s">
-        <v>391</v>
-      </c>
+      <c r="Q357"/>
       <c r="R357"/>
       <c r="S357"/>
       <c r="T357"/>
@@ -17029,13 +17031,13 @@
         <v>392</v>
       </c>
       <c r="B358" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C358" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D358" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E358" t="n">
         <v>5.26315789473684</v>
@@ -17051,12 +17053,12 @@
       <c r="N358"/>
       <c r="O358"/>
       <c r="P358"/>
-      <c r="Q358"/>
+      <c r="Q358" t="s">
+        <v>392</v>
+      </c>
       <c r="R358"/>
       <c r="S358"/>
-      <c r="T358" t="s">
-        <v>392</v>
-      </c>
+      <c r="T358"/>
       <c r="U358"/>
       <c r="V358"/>
       <c r="W358"/>
@@ -17087,14 +17089,14 @@
       <c r="L359"/>
       <c r="M359"/>
       <c r="N359"/>
-      <c r="O359" t="s">
-        <v>393</v>
-      </c>
+      <c r="O359"/>
       <c r="P359"/>
       <c r="Q359"/>
       <c r="R359"/>
       <c r="S359"/>
-      <c r="T359"/>
+      <c r="T359" t="s">
+        <v>393</v>
+      </c>
       <c r="U359"/>
       <c r="V359"/>
       <c r="W359"/>
@@ -17123,11 +17125,11 @@
       <c r="J360"/>
       <c r="K360"/>
       <c r="L360"/>
-      <c r="M360" t="s">
+      <c r="M360"/>
+      <c r="N360"/>
+      <c r="O360" t="s">
         <v>394</v>
       </c>
-      <c r="N360"/>
-      <c r="O360"/>
       <c r="P360"/>
       <c r="Q360"/>
       <c r="R360"/>
@@ -17161,14 +17163,14 @@
       <c r="J361"/>
       <c r="K361"/>
       <c r="L361"/>
-      <c r="M361"/>
+      <c r="M361" t="s">
+        <v>395</v>
+      </c>
       <c r="N361"/>
       <c r="O361"/>
       <c r="P361"/>
       <c r="Q361"/>
-      <c r="R361" t="s">
-        <v>395</v>
-      </c>
+      <c r="R361"/>
       <c r="S361"/>
       <c r="T361"/>
       <c r="U361"/>
@@ -17203,10 +17205,10 @@
       <c r="N362"/>
       <c r="O362"/>
       <c r="P362"/>
-      <c r="Q362" t="s">
+      <c r="Q362"/>
+      <c r="R362" t="s">
         <v>396</v>
       </c>
-      <c r="R362"/>
       <c r="S362"/>
       <c r="T362"/>
       <c r="U362"/>
@@ -17238,12 +17240,12 @@
       <c r="K363"/>
       <c r="L363"/>
       <c r="M363"/>
-      <c r="N363" t="s">
-        <v>397</v>
-      </c>
+      <c r="N363"/>
       <c r="O363"/>
       <c r="P363"/>
-      <c r="Q363"/>
+      <c r="Q363" t="s">
+        <v>397</v>
+      </c>
       <c r="R363"/>
       <c r="S363"/>
       <c r="T363"/>
@@ -17271,14 +17273,14 @@
       <c r="F364"/>
       <c r="G364"/>
       <c r="H364"/>
-      <c r="I364" t="s">
-        <v>398</v>
-      </c>
+      <c r="I364"/>
       <c r="J364"/>
       <c r="K364"/>
       <c r="L364"/>
       <c r="M364"/>
-      <c r="N364"/>
+      <c r="N364" t="s">
+        <v>398</v>
+      </c>
       <c r="O364"/>
       <c r="P364"/>
       <c r="Q364"/>
@@ -17309,11 +17311,11 @@
       <c r="F365"/>
       <c r="G365"/>
       <c r="H365"/>
-      <c r="I365"/>
+      <c r="I365" t="s">
+        <v>399</v>
+      </c>
       <c r="J365"/>
-      <c r="K365" t="s">
-        <v>399</v>
-      </c>
+      <c r="K365"/>
       <c r="L365"/>
       <c r="M365"/>
       <c r="N365"/>
@@ -17344,14 +17346,14 @@
       <c r="E366" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F366" t="s">
-        <v>400</v>
-      </c>
+      <c r="F366"/>
       <c r="G366"/>
       <c r="H366"/>
       <c r="I366"/>
       <c r="J366"/>
-      <c r="K366"/>
+      <c r="K366" t="s">
+        <v>400</v>
+      </c>
       <c r="L366"/>
       <c r="M366"/>
       <c r="N366"/>
@@ -17382,16 +17384,16 @@
       <c r="E367" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F367"/>
+      <c r="F367" t="s">
+        <v>401</v>
+      </c>
       <c r="G367"/>
       <c r="H367"/>
       <c r="I367"/>
       <c r="J367"/>
       <c r="K367"/>
       <c r="L367"/>
-      <c r="M367" t="s">
-        <v>401</v>
-      </c>
+      <c r="M367"/>
       <c r="N367"/>
       <c r="O367"/>
       <c r="P367"/>
@@ -17420,16 +17422,16 @@
       <c r="E368" t="n">
         <v>5.26315789473684</v>
       </c>
-      <c r="F368" t="s">
-        <v>402</v>
-      </c>
+      <c r="F368"/>
       <c r="G368"/>
       <c r="H368"/>
       <c r="I368"/>
       <c r="J368"/>
       <c r="K368"/>
       <c r="L368"/>
-      <c r="M368"/>
+      <c r="M368" t="s">
+        <v>402</v>
+      </c>
       <c r="N368"/>
       <c r="O368"/>
       <c r="P368"/>
@@ -23392,19 +23394,19 @@
       <c r="A123" t="s">
         <v>157</v>
       </c>
-      <c r="B123"/>
-      <c r="C123"/>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123"/>
       <c r="H123"/>
-      <c r="I123" t="s">
-        <v>28</v>
-      </c>
-      <c r="J123" t="s">
-        <v>28</v>
-      </c>
+      <c r="I123"/>
+      <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
@@ -23427,19 +23429,19 @@
       <c r="F124"/>
       <c r="G124"/>
       <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
+      <c r="I124" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" t="s">
+        <v>28</v>
+      </c>
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124"/>
-      <c r="N124" t="s">
-        <v>28</v>
-      </c>
+      <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
-      <c r="Q124" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q124"/>
       <c r="R124"/>
       <c r="S124"/>
       <c r="T124"/>
@@ -23449,25 +23451,25 @@
         <v>159</v>
       </c>
       <c r="B125"/>
-      <c r="C125" t="s">
-        <v>25</v>
-      </c>
+      <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125"/>
       <c r="H125"/>
-      <c r="I125" t="s">
-        <v>28</v>
-      </c>
+      <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
-      <c r="N125"/>
+      <c r="N125" t="s">
+        <v>28</v>
+      </c>
       <c r="O125"/>
       <c r="P125"/>
-      <c r="Q125"/>
+      <c r="Q125" t="s">
+        <v>28</v>
+      </c>
       <c r="R125"/>
       <c r="S125"/>
       <c r="T125"/>
@@ -23477,21 +23479,21 @@
         <v>160</v>
       </c>
       <c r="B126"/>
-      <c r="C126"/>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
       <c r="D126"/>
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126"/>
       <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126" t="s">
-        <v>28</v>
-      </c>
+      <c r="I126" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
-      <c r="M126" t="s">
-        <v>87</v>
-      </c>
+      <c r="M126"/>
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126"/>
@@ -23505,21 +23507,21 @@
         <v>161</v>
       </c>
       <c r="B127"/>
-      <c r="C127" t="s">
-        <v>25</v>
-      </c>
+      <c r="C127"/>
       <c r="D127"/>
-      <c r="E127" t="s">
-        <v>25</v>
-      </c>
+      <c r="E127"/>
       <c r="F127"/>
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127"/>
+      <c r="J127" t="s">
+        <v>28</v>
+      </c>
       <c r="K127"/>
       <c r="L127"/>
-      <c r="M127"/>
+      <c r="M127" t="s">
+        <v>87</v>
+      </c>
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127"/>
@@ -23533,19 +23535,19 @@
         <v>162</v>
       </c>
       <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128"/>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="s">
+        <v>25</v>
+      </c>
       <c r="F128"/>
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128"/>
-      <c r="K128" t="s">
-        <v>25</v>
-      </c>
+      <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
@@ -23562,16 +23564,18 @@
       </c>
       <c r="B129"/>
       <c r="C129"/>
-      <c r="D129"/>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
       <c r="E129"/>
       <c r="F129"/>
-      <c r="G129" t="s">
-        <v>54</v>
-      </c>
+      <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129"/>
-      <c r="K129"/>
+      <c r="K129" t="s">
+        <v>25</v>
+      </c>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
@@ -23586,14 +23590,14 @@
       <c r="A130" t="s">
         <v>164</v>
       </c>
-      <c r="B130" t="s">
-        <v>25</v>
-      </c>
+      <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
       <c r="F130"/>
-      <c r="G130"/>
+      <c r="G130" t="s">
+        <v>54</v>
+      </c>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130"/>
@@ -23612,7 +23616,9 @@
       <c r="A131" t="s">
         <v>165</v>
       </c>
-      <c r="B131"/>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
@@ -23628,9 +23634,7 @@
       <c r="O131"/>
       <c r="P131"/>
       <c r="Q131"/>
-      <c r="R131" t="s">
-        <v>28</v>
-      </c>
+      <c r="R131"/>
       <c r="S131"/>
       <c r="T131"/>
     </row>
@@ -23824,9 +23828,7 @@
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
-      <c r="F139" t="s">
-        <v>54</v>
-      </c>
+      <c r="F139"/>
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139"/>
@@ -23838,7 +23840,9 @@
       <c r="O139"/>
       <c r="P139"/>
       <c r="Q139"/>
-      <c r="R139"/>
+      <c r="R139" t="s">
+        <v>28</v>
+      </c>
       <c r="S139"/>
       <c r="T139"/>
     </row>
@@ -23850,14 +23854,14 @@
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
-      <c r="F140"/>
+      <c r="F140" t="s">
+        <v>54</v>
+      </c>
       <c r="G140"/>
       <c r="H140"/>
       <c r="I140"/>
       <c r="J140"/>
-      <c r="K140" t="s">
-        <v>87</v>
-      </c>
+      <c r="K140"/>
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140"/>
@@ -23881,16 +23885,16 @@
       <c r="H141"/>
       <c r="I141"/>
       <c r="J141"/>
-      <c r="K141"/>
+      <c r="K141" t="s">
+        <v>87</v>
+      </c>
       <c r="L141"/>
       <c r="M141"/>
       <c r="N141"/>
       <c r="O141"/>
       <c r="P141"/>
       <c r="Q141"/>
-      <c r="R141" t="s">
-        <v>28</v>
-      </c>
+      <c r="R141"/>
       <c r="S141"/>
       <c r="T141"/>
     </row>
@@ -23914,19 +23918,17 @@
       <c r="O142"/>
       <c r="P142"/>
       <c r="Q142"/>
-      <c r="R142"/>
-      <c r="S142" t="s">
-        <v>28</v>
-      </c>
+      <c r="R142" t="s">
+        <v>28</v>
+      </c>
+      <c r="S142"/>
       <c r="T142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>177</v>
       </c>
-      <c r="B143" t="s">
-        <v>25</v>
-      </c>
+      <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
@@ -23943,17 +23945,19 @@
       <c r="P143"/>
       <c r="Q143"/>
       <c r="R143"/>
-      <c r="S143"/>
+      <c r="S143" t="s">
+        <v>28</v>
+      </c>
       <c r="T143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
         <v>178</v>
       </c>
-      <c r="B144"/>
-      <c r="C144" t="s">
-        <v>25</v>
-      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
       <c r="F144"/>
@@ -23978,7 +23982,7 @@
       </c>
       <c r="B145"/>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
@@ -24030,7 +24034,7 @@
       </c>
       <c r="B147"/>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -24108,7 +24112,7 @@
       </c>
       <c r="B150"/>
       <c r="C150" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>
@@ -24134,7 +24138,7 @@
       </c>
       <c r="B151"/>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D151"/>
       <c r="E151"/>
@@ -24158,10 +24162,10 @@
       <c r="A152" t="s">
         <v>186</v>
       </c>
-      <c r="B152" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152"/>
+      <c r="B152"/>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
       <c r="D152"/>
       <c r="E152"/>
       <c r="F152"/>
@@ -24184,14 +24188,14 @@
       <c r="A153" t="s">
         <v>187</v>
       </c>
-      <c r="B153"/>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
       <c r="F153"/>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
+      <c r="G153"/>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153"/>
@@ -24215,12 +24219,12 @@
       <c r="D154"/>
       <c r="E154"/>
       <c r="F154"/>
-      <c r="G154"/>
+      <c r="G154" t="s">
+        <v>25</v>
+      </c>
       <c r="H154"/>
       <c r="I154"/>
-      <c r="J154" t="s">
-        <v>28</v>
-      </c>
+      <c r="J154"/>
       <c r="K154"/>
       <c r="L154"/>
       <c r="M154"/>
@@ -24241,12 +24245,12 @@
       <c r="D155"/>
       <c r="E155"/>
       <c r="F155"/>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
+      <c r="G155"/>
       <c r="H155"/>
       <c r="I155"/>
-      <c r="J155"/>
+      <c r="J155" t="s">
+        <v>28</v>
+      </c>
       <c r="K155"/>
       <c r="L155"/>
       <c r="M155"/>
@@ -24265,11 +24269,11 @@
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
-      <c r="E156" t="s">
-        <v>25</v>
-      </c>
+      <c r="E156"/>
       <c r="F156"/>
-      <c r="G156"/>
+      <c r="G156" t="s">
+        <v>25</v>
+      </c>
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156"/>
@@ -24288,12 +24292,12 @@
       <c r="A157" t="s">
         <v>191</v>
       </c>
-      <c r="B157" t="s">
-        <v>25</v>
-      </c>
+      <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
-      <c r="E157"/>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
       <c r="F157"/>
       <c r="G157"/>
       <c r="H157"/>
@@ -24340,10 +24344,10 @@
       <c r="A159" t="s">
         <v>193</v>
       </c>
-      <c r="B159"/>
-      <c r="C159" t="s">
-        <v>25</v>
-      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
       <c r="F159"/>
@@ -24366,10 +24370,10 @@
       <c r="A160" t="s">
         <v>194</v>
       </c>
-      <c r="B160" t="s">
-        <v>25</v>
-      </c>
-      <c r="C160"/>
+      <c r="B160"/>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
       <c r="D160"/>
       <c r="E160"/>
       <c r="F160"/>
@@ -24418,14 +24422,14 @@
       <c r="A162" t="s">
         <v>196</v>
       </c>
-      <c r="B162"/>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
       <c r="F162"/>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
+      <c r="G162"/>
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162"/>
@@ -24475,15 +24479,15 @@
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164"/>
-      <c r="G164"/>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
       <c r="H164"/>
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164"/>
-      <c r="M164" t="s">
-        <v>25</v>
-      </c>
+      <c r="M164"/>
       <c r="N164"/>
       <c r="O164"/>
       <c r="P164"/>
@@ -24496,9 +24500,7 @@
       <c r="A165" t="s">
         <v>199</v>
       </c>
-      <c r="B165" t="s">
-        <v>25</v>
-      </c>
+      <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
@@ -24509,7 +24511,9 @@
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165"/>
-      <c r="M165"/>
+      <c r="M165" t="s">
+        <v>25</v>
+      </c>
       <c r="N165"/>
       <c r="O165"/>
       <c r="P165"/>
@@ -24575,7 +24579,7 @@
         <v>202</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C168"/>
       <c r="D168"/>
@@ -24601,7 +24605,7 @@
         <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C169"/>
       <c r="D169"/>
@@ -24626,14 +24630,14 @@
       <c r="A170" t="s">
         <v>204</v>
       </c>
-      <c r="B170"/>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
       <c r="F170"/>
-      <c r="G170" t="s">
-        <v>25</v>
-      </c>
+      <c r="G170"/>
       <c r="H170"/>
       <c r="I170"/>
       <c r="J170"/>
@@ -24652,14 +24656,14 @@
       <c r="A171" t="s">
         <v>205</v>
       </c>
-      <c r="B171" t="s">
-        <v>25</v>
-      </c>
+      <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
       <c r="F171"/>
-      <c r="G171"/>
+      <c r="G171" t="s">
+        <v>25</v>
+      </c>
       <c r="H171"/>
       <c r="I171"/>
       <c r="J171"/>
@@ -24678,7 +24682,9 @@
       <c r="A172" t="s">
         <v>206</v>
       </c>
-      <c r="B172"/>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
       <c r="C172"/>
       <c r="D172"/>
       <c r="E172"/>
@@ -24689,9 +24695,7 @@
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172"/>
-      <c r="M172" t="s">
-        <v>28</v>
-      </c>
+      <c r="M172"/>
       <c r="N172"/>
       <c r="O172"/>
       <c r="P172"/>
@@ -24704,9 +24708,7 @@
       <c r="A173" t="s">
         <v>207</v>
       </c>
-      <c r="B173" t="s">
-        <v>25</v>
-      </c>
+      <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
@@ -24717,7 +24719,9 @@
       <c r="J173"/>
       <c r="K173"/>
       <c r="L173"/>
-      <c r="M173"/>
+      <c r="M173" t="s">
+        <v>28</v>
+      </c>
       <c r="N173"/>
       <c r="O173"/>
       <c r="P173"/>
@@ -24730,14 +24734,14 @@
       <c r="A174" t="s">
         <v>208</v>
       </c>
-      <c r="B174"/>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
       <c r="F174"/>
-      <c r="G174" t="s">
-        <v>25</v>
-      </c>
+      <c r="G174"/>
       <c r="H174"/>
       <c r="I174"/>
       <c r="J174"/>
@@ -24759,11 +24763,11 @@
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
-      <c r="E175" t="s">
-        <v>25</v>
-      </c>
+      <c r="E175"/>
       <c r="F175"/>
-      <c r="G175"/>
+      <c r="G175" t="s">
+        <v>25</v>
+      </c>
       <c r="H175"/>
       <c r="I175"/>
       <c r="J175"/>
@@ -24785,11 +24789,11 @@
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
-      <c r="E176"/>
+      <c r="E176" t="s">
+        <v>25</v>
+      </c>
       <c r="F176"/>
-      <c r="G176" t="s">
-        <v>25</v>
-      </c>
+      <c r="G176"/>
       <c r="H176"/>
       <c r="I176"/>
       <c r="J176"/>
@@ -24813,14 +24817,14 @@
       <c r="D177"/>
       <c r="E177"/>
       <c r="F177"/>
-      <c r="G177"/>
+      <c r="G177" t="s">
+        <v>25</v>
+      </c>
       <c r="H177"/>
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177"/>
-      <c r="L177" t="s">
-        <v>25</v>
-      </c>
+      <c r="L177"/>
       <c r="M177"/>
       <c r="N177"/>
       <c r="O177"/>
@@ -24844,10 +24848,10 @@
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178"/>
-      <c r="L178"/>
-      <c r="M178" t="s">
-        <v>28</v>
-      </c>
+      <c r="L178" t="s">
+        <v>25</v>
+      </c>
+      <c r="M178"/>
       <c r="N178"/>
       <c r="O178"/>
       <c r="P178"/>
@@ -24871,10 +24875,10 @@
       <c r="J179"/>
       <c r="K179"/>
       <c r="L179"/>
-      <c r="M179"/>
-      <c r="N179" t="s">
-        <v>28</v>
-      </c>
+      <c r="M179" t="s">
+        <v>28</v>
+      </c>
+      <c r="N179"/>
       <c r="O179"/>
       <c r="P179"/>
       <c r="Q179"/>
@@ -24897,10 +24901,10 @@
       <c r="J180"/>
       <c r="K180"/>
       <c r="L180"/>
-      <c r="M180" t="s">
-        <v>28</v>
-      </c>
-      <c r="N180"/>
+      <c r="M180"/>
+      <c r="N180" t="s">
+        <v>28</v>
+      </c>
       <c r="O180"/>
       <c r="P180"/>
       <c r="Q180"/>
@@ -24922,10 +24926,10 @@
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181"/>
-      <c r="L181" t="s">
-        <v>87</v>
-      </c>
-      <c r="M181"/>
+      <c r="L181"/>
+      <c r="M181" t="s">
+        <v>28</v>
+      </c>
       <c r="N181"/>
       <c r="O181"/>
       <c r="P181"/>
@@ -24948,11 +24952,11 @@
       <c r="I182"/>
       <c r="J182"/>
       <c r="K182"/>
-      <c r="L182"/>
+      <c r="L182" t="s">
+        <v>87</v>
+      </c>
       <c r="M182"/>
-      <c r="N182" t="s">
-        <v>28</v>
-      </c>
+      <c r="N182"/>
       <c r="O182"/>
       <c r="P182"/>
       <c r="Q182"/>
@@ -24965,9 +24969,7 @@
         <v>217</v>
       </c>
       <c r="B183"/>
-      <c r="C183" t="s">
-        <v>25</v>
-      </c>
+      <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
       <c r="F183"/>
@@ -24978,7 +24980,9 @@
       <c r="K183"/>
       <c r="L183"/>
       <c r="M183"/>
-      <c r="N183"/>
+      <c r="N183" t="s">
+        <v>28</v>
+      </c>
       <c r="O183"/>
       <c r="P183"/>
       <c r="Q183"/>
@@ -25017,7 +25021,9 @@
         <v>219</v>
       </c>
       <c r="B185"/>
-      <c r="C185"/>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
       <c r="D185"/>
       <c r="E185"/>
       <c r="F185"/>
@@ -25032,9 +25038,7 @@
       <c r="O185"/>
       <c r="P185"/>
       <c r="Q185"/>
-      <c r="R185" t="s">
-        <v>28</v>
-      </c>
+      <c r="R185"/>
       <c r="S185"/>
       <c r="T185"/>
     </row>
@@ -25236,13 +25240,13 @@
       <c r="K193"/>
       <c r="L193"/>
       <c r="M193"/>
-      <c r="N193" t="s">
-        <v>28</v>
-      </c>
+      <c r="N193"/>
       <c r="O193"/>
       <c r="P193"/>
       <c r="Q193"/>
-      <c r="R193"/>
+      <c r="R193" t="s">
+        <v>28</v>
+      </c>
       <c r="S193"/>
       <c r="T193"/>
     </row>
@@ -25280,9 +25284,7 @@
       <c r="C195"/>
       <c r="D195"/>
       <c r="E195"/>
-      <c r="F195" t="s">
-        <v>28</v>
-      </c>
+      <c r="F195"/>
       <c r="G195"/>
       <c r="H195"/>
       <c r="I195"/>
@@ -25290,7 +25292,9 @@
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
-      <c r="N195"/>
+      <c r="N195" t="s">
+        <v>28</v>
+      </c>
       <c r="O195"/>
       <c r="P195"/>
       <c r="Q195"/>
@@ -25306,7 +25310,9 @@
       <c r="C196"/>
       <c r="D196"/>
       <c r="E196"/>
-      <c r="F196"/>
+      <c r="F196" t="s">
+        <v>28</v>
+      </c>
       <c r="G196"/>
       <c r="H196"/>
       <c r="I196"/>
@@ -25318,9 +25324,7 @@
       <c r="O196"/>
       <c r="P196"/>
       <c r="Q196"/>
-      <c r="R196" t="s">
-        <v>87</v>
-      </c>
+      <c r="R196"/>
       <c r="S196"/>
       <c r="T196"/>
     </row>
@@ -25340,13 +25344,13 @@
       <c r="K197"/>
       <c r="L197"/>
       <c r="M197"/>
-      <c r="N197" t="s">
-        <v>25</v>
-      </c>
+      <c r="N197"/>
       <c r="O197"/>
       <c r="P197"/>
       <c r="Q197"/>
-      <c r="R197"/>
+      <c r="R197" t="s">
+        <v>87</v>
+      </c>
       <c r="S197"/>
       <c r="T197"/>
     </row>
@@ -25367,7 +25371,7 @@
       <c r="L198"/>
       <c r="M198"/>
       <c r="N198" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O198"/>
       <c r="P198"/>
@@ -25391,10 +25395,10 @@
       <c r="J199"/>
       <c r="K199"/>
       <c r="L199"/>
-      <c r="M199" t="s">
-        <v>28</v>
-      </c>
-      <c r="N199"/>
+      <c r="M199"/>
+      <c r="N199" t="s">
+        <v>28</v>
+      </c>
       <c r="O199"/>
       <c r="P199"/>
       <c r="Q199"/>
@@ -25417,14 +25421,14 @@
       <c r="J200"/>
       <c r="K200"/>
       <c r="L200"/>
-      <c r="M200"/>
+      <c r="M200" t="s">
+        <v>28</v>
+      </c>
       <c r="N200"/>
       <c r="O200"/>
       <c r="P200"/>
       <c r="Q200"/>
-      <c r="R200" t="s">
-        <v>28</v>
-      </c>
+      <c r="R200"/>
       <c r="S200"/>
       <c r="T200"/>
     </row>
@@ -25443,14 +25447,14 @@
       <c r="J201"/>
       <c r="K201"/>
       <c r="L201"/>
-      <c r="M201" t="s">
-        <v>25</v>
-      </c>
+      <c r="M201"/>
       <c r="N201"/>
       <c r="O201"/>
       <c r="P201"/>
       <c r="Q201"/>
-      <c r="R201"/>
+      <c r="R201" t="s">
+        <v>28</v>
+      </c>
       <c r="S201"/>
       <c r="T201"/>
     </row>
@@ -25469,10 +25473,10 @@
       <c r="J202"/>
       <c r="K202"/>
       <c r="L202"/>
-      <c r="M202"/>
-      <c r="N202" t="s">
-        <v>28</v>
-      </c>
+      <c r="M202" t="s">
+        <v>25</v>
+      </c>
+      <c r="N202"/>
       <c r="O202"/>
       <c r="P202"/>
       <c r="Q202"/>
@@ -25487,9 +25491,7 @@
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
-      <c r="E203" t="s">
-        <v>25</v>
-      </c>
+      <c r="E203"/>
       <c r="F203"/>
       <c r="G203"/>
       <c r="H203"/>
@@ -25498,7 +25500,9 @@
       <c r="K203"/>
       <c r="L203"/>
       <c r="M203"/>
-      <c r="N203"/>
+      <c r="N203" t="s">
+        <v>28</v>
+      </c>
       <c r="O203"/>
       <c r="P203"/>
       <c r="Q203"/>
@@ -25513,16 +25517,16 @@
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
-      <c r="E204"/>
+      <c r="E204" t="s">
+        <v>25</v>
+      </c>
       <c r="F204"/>
       <c r="G204"/>
       <c r="H204"/>
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204"/>
-      <c r="L204" t="s">
-        <v>25</v>
-      </c>
+      <c r="L204"/>
       <c r="M204"/>
       <c r="N204"/>
       <c r="O204"/>
@@ -25544,11 +25548,11 @@
       <c r="G205"/>
       <c r="H205"/>
       <c r="I205"/>
-      <c r="J205" t="s">
-        <v>87</v>
-      </c>
+      <c r="J205"/>
       <c r="K205"/>
-      <c r="L205"/>
+      <c r="L205" t="s">
+        <v>25</v>
+      </c>
       <c r="M205"/>
       <c r="N205"/>
       <c r="O205"/>
@@ -25570,13 +25574,13 @@
       <c r="G206"/>
       <c r="H206"/>
       <c r="I206"/>
-      <c r="J206"/>
+      <c r="J206" t="s">
+        <v>87</v>
+      </c>
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
-      <c r="N206" t="s">
-        <v>54</v>
-      </c>
+      <c r="N206"/>
       <c r="O206"/>
       <c r="P206"/>
       <c r="Q206"/>
@@ -25588,9 +25592,7 @@
       <c r="A207" t="s">
         <v>241</v>
       </c>
-      <c r="B207" t="s">
-        <v>28</v>
-      </c>
+      <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
       <c r="E207"/>
@@ -25602,7 +25604,9 @@
       <c r="K207"/>
       <c r="L207"/>
       <c r="M207"/>
-      <c r="N207"/>
+      <c r="N207" t="s">
+        <v>54</v>
+      </c>
       <c r="O207"/>
       <c r="P207"/>
       <c r="Q207"/>
@@ -25614,11 +25618,11 @@
       <c r="A208" t="s">
         <v>242</v>
       </c>
-      <c r="B208"/>
+      <c r="B208" t="s">
+        <v>28</v>
+      </c>
       <c r="C208"/>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
+      <c r="D208"/>
       <c r="E208"/>
       <c r="F208"/>
       <c r="G208"/>
@@ -25642,12 +25646,12 @@
       </c>
       <c r="B209"/>
       <c r="C209"/>
-      <c r="D209"/>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
       <c r="E209"/>
       <c r="F209"/>
-      <c r="G209" t="s">
-        <v>25</v>
-      </c>
+      <c r="G209"/>
       <c r="H209"/>
       <c r="I209"/>
       <c r="J209"/>
@@ -25672,7 +25676,7 @@
       <c r="E210"/>
       <c r="F210"/>
       <c r="G210" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H210"/>
       <c r="I210"/>
@@ -25719,13 +25723,13 @@
         <v>246</v>
       </c>
       <c r="B212"/>
-      <c r="C212" t="s">
-        <v>25</v>
-      </c>
+      <c r="C212"/>
       <c r="D212"/>
       <c r="E212"/>
       <c r="F212"/>
-      <c r="G212"/>
+      <c r="G212" t="s">
+        <v>28</v>
+      </c>
       <c r="H212"/>
       <c r="I212"/>
       <c r="J212"/>
@@ -25746,7 +25750,7 @@
       </c>
       <c r="B213"/>
       <c r="C213" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D213"/>
       <c r="E213"/>
@@ -25772,7 +25776,7 @@
       </c>
       <c r="B214"/>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D214"/>
       <c r="E214"/>
@@ -25796,10 +25800,10 @@
       <c r="A215" t="s">
         <v>249</v>
       </c>
-      <c r="B215" t="s">
-        <v>25</v>
-      </c>
-      <c r="C215"/>
+      <c r="B215"/>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
       <c r="D215"/>
       <c r="E215"/>
       <c r="F215"/>
@@ -25900,16 +25904,16 @@
       <c r="A219" t="s">
         <v>253</v>
       </c>
-      <c r="B219"/>
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
       <c r="C219"/>
       <c r="D219"/>
       <c r="E219"/>
       <c r="F219"/>
       <c r="G219"/>
       <c r="H219"/>
-      <c r="I219" t="s">
-        <v>28</v>
-      </c>
+      <c r="I219"/>
       <c r="J219"/>
       <c r="K219"/>
       <c r="L219"/>
@@ -26011,14 +26015,14 @@
       <c r="F223"/>
       <c r="G223"/>
       <c r="H223"/>
-      <c r="I223"/>
+      <c r="I223" t="s">
+        <v>28</v>
+      </c>
       <c r="J223"/>
       <c r="K223"/>
       <c r="L223"/>
       <c r="M223"/>
-      <c r="N223" t="s">
-        <v>25</v>
-      </c>
+      <c r="N223"/>
       <c r="O223"/>
       <c r="P223"/>
       <c r="Q223"/>
@@ -26030,7 +26034,9 @@
       <c r="A224" t="s">
         <v>258</v>
       </c>
-      <c r="B224"/>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
       <c r="C224"/>
       <c r="D224"/>
       <c r="E224"/>
@@ -26038,9 +26044,7 @@
       <c r="G224"/>
       <c r="H224"/>
       <c r="I224"/>
-      <c r="J224" t="s">
-        <v>25</v>
-      </c>
+      <c r="J224"/>
       <c r="K224"/>
       <c r="L224"/>
       <c r="M224"/>
@@ -26064,13 +26068,13 @@
       <c r="G225"/>
       <c r="H225"/>
       <c r="I225"/>
-      <c r="J225" t="s">
-        <v>25</v>
-      </c>
+      <c r="J225"/>
       <c r="K225"/>
       <c r="L225"/>
       <c r="M225"/>
-      <c r="N225"/>
+      <c r="N225" t="s">
+        <v>25</v>
+      </c>
       <c r="O225"/>
       <c r="P225"/>
       <c r="Q225"/>
@@ -26082,9 +26086,7 @@
       <c r="A226" t="s">
         <v>260</v>
       </c>
-      <c r="B226" t="s">
-        <v>25</v>
-      </c>
+      <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
       <c r="E226"/>
@@ -26092,7 +26094,9 @@
       <c r="G226"/>
       <c r="H226"/>
       <c r="I226"/>
-      <c r="J226"/>
+      <c r="J226" t="s">
+        <v>25</v>
+      </c>
       <c r="K226"/>
       <c r="L226"/>
       <c r="M226"/>
@@ -26116,7 +26120,9 @@
       <c r="G227"/>
       <c r="H227"/>
       <c r="I227"/>
-      <c r="J227"/>
+      <c r="J227" t="s">
+        <v>25</v>
+      </c>
       <c r="K227"/>
       <c r="L227"/>
       <c r="M227"/>
@@ -26125,19 +26131,17 @@
       <c r="P227"/>
       <c r="Q227"/>
       <c r="R227"/>
-      <c r="S227" t="s">
-        <v>28</v>
-      </c>
+      <c r="S227"/>
       <c r="T227"/>
     </row>
     <row r="228">
       <c r="A228" t="s">
         <v>262</v>
       </c>
-      <c r="B228"/>
-      <c r="C228" t="s">
-        <v>25</v>
-      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228"/>
       <c r="D228"/>
       <c r="E228"/>
       <c r="F228"/>
@@ -26161,9 +26165,7 @@
         <v>263</v>
       </c>
       <c r="B229"/>
-      <c r="C229" t="s">
-        <v>87</v>
-      </c>
+      <c r="C229"/>
       <c r="D229"/>
       <c r="E229"/>
       <c r="F229"/>
@@ -26179,7 +26181,9 @@
       <c r="P229"/>
       <c r="Q229"/>
       <c r="R229"/>
-      <c r="S229"/>
+      <c r="S229" t="s">
+        <v>28</v>
+      </c>
       <c r="T229"/>
     </row>
     <row r="230">
@@ -26212,10 +26216,10 @@
       <c r="A231" t="s">
         <v>265</v>
       </c>
-      <c r="B231" t="s">
-        <v>25</v>
-      </c>
-      <c r="C231"/>
+      <c r="B231"/>
+      <c r="C231" t="s">
+        <v>87</v>
+      </c>
       <c r="D231"/>
       <c r="E231"/>
       <c r="F231"/>
@@ -26238,10 +26242,10 @@
       <c r="A232" t="s">
         <v>266</v>
       </c>
-      <c r="B232" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232"/>
+      <c r="B232"/>
+      <c r="C232" t="s">
+        <v>25</v>
+      </c>
       <c r="D232"/>
       <c r="E232"/>
       <c r="F232"/>
@@ -26264,7 +26268,9 @@
       <c r="A233" t="s">
         <v>267</v>
       </c>
-      <c r="B233"/>
+      <c r="B233" t="s">
+        <v>25</v>
+      </c>
       <c r="C233"/>
       <c r="D233"/>
       <c r="E233"/>
@@ -26274,9 +26280,7 @@
       <c r="I233"/>
       <c r="J233"/>
       <c r="K233"/>
-      <c r="L233" t="s">
-        <v>28</v>
-      </c>
+      <c r="L233"/>
       <c r="M233"/>
       <c r="N233"/>
       <c r="O233"/>
@@ -26290,15 +26294,15 @@
       <c r="A234" t="s">
         <v>268</v>
       </c>
-      <c r="B234"/>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
       <c r="C234"/>
       <c r="D234"/>
       <c r="E234"/>
       <c r="F234"/>
       <c r="G234"/>
-      <c r="H234" t="s">
-        <v>28</v>
-      </c>
+      <c r="H234"/>
       <c r="I234"/>
       <c r="J234"/>
       <c r="K234"/>
@@ -26320,15 +26324,15 @@
       <c r="C235"/>
       <c r="D235"/>
       <c r="E235"/>
-      <c r="F235" t="s">
-        <v>28</v>
-      </c>
+      <c r="F235"/>
       <c r="G235"/>
       <c r="H235"/>
       <c r="I235"/>
       <c r="J235"/>
       <c r="K235"/>
-      <c r="L235"/>
+      <c r="L235" t="s">
+        <v>28</v>
+      </c>
       <c r="M235"/>
       <c r="N235"/>
       <c r="O235"/>
@@ -26348,14 +26352,14 @@
       <c r="E236"/>
       <c r="F236"/>
       <c r="G236"/>
-      <c r="H236"/>
+      <c r="H236" t="s">
+        <v>28</v>
+      </c>
       <c r="I236"/>
       <c r="J236"/>
       <c r="K236"/>
       <c r="L236"/>
-      <c r="M236" t="s">
-        <v>28</v>
-      </c>
+      <c r="M236"/>
       <c r="N236"/>
       <c r="O236"/>
       <c r="P236"/>
@@ -26372,7 +26376,9 @@
       <c r="C237"/>
       <c r="D237"/>
       <c r="E237"/>
-      <c r="F237"/>
+      <c r="F237" t="s">
+        <v>28</v>
+      </c>
       <c r="G237"/>
       <c r="H237"/>
       <c r="I237"/>
@@ -26380,9 +26386,7 @@
       <c r="K237"/>
       <c r="L237"/>
       <c r="M237"/>
-      <c r="N237" t="s">
-        <v>28</v>
-      </c>
+      <c r="N237"/>
       <c r="O237"/>
       <c r="P237"/>
       <c r="Q237"/>
@@ -26401,13 +26405,13 @@
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238"/>
-      <c r="I238" t="s">
-        <v>28</v>
-      </c>
+      <c r="I238"/>
       <c r="J238"/>
       <c r="K238"/>
       <c r="L238"/>
-      <c r="M238"/>
+      <c r="M238" t="s">
+        <v>28</v>
+      </c>
       <c r="N238"/>
       <c r="O238"/>
       <c r="P238"/>
@@ -26427,14 +26431,14 @@
       <c r="F239"/>
       <c r="G239"/>
       <c r="H239"/>
-      <c r="I239" t="s">
-        <v>28</v>
-      </c>
+      <c r="I239"/>
       <c r="J239"/>
       <c r="K239"/>
       <c r="L239"/>
       <c r="M239"/>
-      <c r="N239"/>
+      <c r="N239" t="s">
+        <v>28</v>
+      </c>
       <c r="O239"/>
       <c r="P239"/>
       <c r="Q239"/>
@@ -26477,11 +26481,11 @@
       <c r="D241"/>
       <c r="E241"/>
       <c r="F241"/>
-      <c r="G241" t="s">
-        <v>28</v>
-      </c>
+      <c r="G241"/>
       <c r="H241"/>
-      <c r="I241"/>
+      <c r="I241" t="s">
+        <v>28</v>
+      </c>
       <c r="J241"/>
       <c r="K241"/>
       <c r="L241"/>
@@ -26557,14 +26561,14 @@
       <c r="F244"/>
       <c r="G244"/>
       <c r="H244"/>
-      <c r="I244"/>
+      <c r="I244" t="s">
+        <v>28</v>
+      </c>
       <c r="J244"/>
       <c r="K244"/>
       <c r="L244"/>
       <c r="M244"/>
-      <c r="N244" t="s">
-        <v>28</v>
-      </c>
+      <c r="N244"/>
       <c r="O244"/>
       <c r="P244"/>
       <c r="Q244"/>
@@ -26581,15 +26585,15 @@
       <c r="D245"/>
       <c r="E245"/>
       <c r="F245"/>
-      <c r="G245"/>
+      <c r="G245" t="s">
+        <v>28</v>
+      </c>
       <c r="H245"/>
       <c r="I245"/>
       <c r="J245"/>
       <c r="K245"/>
       <c r="L245"/>
-      <c r="M245" t="s">
-        <v>28</v>
-      </c>
+      <c r="M245"/>
       <c r="N245"/>
       <c r="O245"/>
       <c r="P245"/>
@@ -26603,9 +26607,7 @@
         <v>280</v>
       </c>
       <c r="B246"/>
-      <c r="C246" t="s">
-        <v>25</v>
-      </c>
+      <c r="C246"/>
       <c r="D246"/>
       <c r="E246"/>
       <c r="F246"/>
@@ -26616,7 +26618,9 @@
       <c r="K246"/>
       <c r="L246"/>
       <c r="M246"/>
-      <c r="N246"/>
+      <c r="N246" t="s">
+        <v>28</v>
+      </c>
       <c r="O246"/>
       <c r="P246"/>
       <c r="Q246"/>
@@ -26628,9 +26632,7 @@
       <c r="A247" t="s">
         <v>281</v>
       </c>
-      <c r="B247" t="s">
-        <v>25</v>
-      </c>
+      <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
       <c r="E247"/>
@@ -26641,7 +26643,9 @@
       <c r="J247"/>
       <c r="K247"/>
       <c r="L247"/>
-      <c r="M247"/>
+      <c r="M247" t="s">
+        <v>28</v>
+      </c>
       <c r="N247"/>
       <c r="O247"/>
       <c r="P247"/>
@@ -26707,7 +26711,9 @@
         <v>284</v>
       </c>
       <c r="B250"/>
-      <c r="C250"/>
+      <c r="C250" t="s">
+        <v>25</v>
+      </c>
       <c r="D250"/>
       <c r="E250"/>
       <c r="F250"/>
@@ -26718,9 +26724,7 @@
       <c r="K250"/>
       <c r="L250"/>
       <c r="M250"/>
-      <c r="N250" t="s">
-        <v>25</v>
-      </c>
+      <c r="N250"/>
       <c r="O250"/>
       <c r="P250"/>
       <c r="Q250"/>
@@ -26732,7 +26736,9 @@
       <c r="A251" t="s">
         <v>285</v>
       </c>
-      <c r="B251"/>
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
       <c r="C251"/>
       <c r="D251"/>
       <c r="E251"/>
@@ -26743,9 +26749,7 @@
       <c r="J251"/>
       <c r="K251"/>
       <c r="L251"/>
-      <c r="M251" t="s">
-        <v>25</v>
-      </c>
+      <c r="M251"/>
       <c r="N251"/>
       <c r="O251"/>
       <c r="P251"/>
@@ -26768,11 +26772,11 @@
       <c r="I252"/>
       <c r="J252"/>
       <c r="K252"/>
-      <c r="L252" t="s">
-        <v>25</v>
-      </c>
+      <c r="L252"/>
       <c r="M252"/>
-      <c r="N252"/>
+      <c r="N252" t="s">
+        <v>25</v>
+      </c>
       <c r="O252"/>
       <c r="P252"/>
       <c r="Q252"/>
@@ -26794,10 +26798,10 @@
       <c r="I253"/>
       <c r="J253"/>
       <c r="K253"/>
-      <c r="L253" t="s">
-        <v>25</v>
-      </c>
-      <c r="M253"/>
+      <c r="L253"/>
+      <c r="M253" t="s">
+        <v>25</v>
+      </c>
       <c r="N253"/>
       <c r="O253"/>
       <c r="P253"/>
@@ -26815,14 +26819,14 @@
       <c r="D254"/>
       <c r="E254"/>
       <c r="F254"/>
-      <c r="G254" t="s">
-        <v>25</v>
-      </c>
+      <c r="G254"/>
       <c r="H254"/>
       <c r="I254"/>
       <c r="J254"/>
       <c r="K254"/>
-      <c r="L254"/>
+      <c r="L254" t="s">
+        <v>25</v>
+      </c>
       <c r="M254"/>
       <c r="N254"/>
       <c r="O254"/>
@@ -26846,11 +26850,11 @@
       <c r="I255"/>
       <c r="J255"/>
       <c r="K255"/>
-      <c r="L255"/>
+      <c r="L255" t="s">
+        <v>25</v>
+      </c>
       <c r="M255"/>
-      <c r="N255" t="s">
-        <v>28</v>
-      </c>
+      <c r="N255"/>
       <c r="O255"/>
       <c r="P255"/>
       <c r="Q255"/>
@@ -26865,11 +26869,11 @@
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
-      <c r="E256" t="s">
-        <v>25</v>
-      </c>
+      <c r="E256"/>
       <c r="F256"/>
-      <c r="G256"/>
+      <c r="G256" t="s">
+        <v>25</v>
+      </c>
       <c r="H256"/>
       <c r="I256"/>
       <c r="J256"/>
@@ -26893,16 +26897,16 @@
       <c r="D257"/>
       <c r="E257"/>
       <c r="F257"/>
-      <c r="G257" t="s">
-        <v>25</v>
-      </c>
+      <c r="G257"/>
       <c r="H257"/>
       <c r="I257"/>
       <c r="J257"/>
       <c r="K257"/>
       <c r="L257"/>
       <c r="M257"/>
-      <c r="N257"/>
+      <c r="N257" t="s">
+        <v>28</v>
+      </c>
       <c r="O257"/>
       <c r="P257"/>
       <c r="Q257"/>
@@ -26917,11 +26921,11 @@
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
-      <c r="E258"/>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
       <c r="F258"/>
-      <c r="G258" t="s">
-        <v>25</v>
-      </c>
+      <c r="G258"/>
       <c r="H258"/>
       <c r="I258"/>
       <c r="J258"/>
@@ -26942,12 +26946,12 @@
       </c>
       <c r="B259"/>
       <c r="C259"/>
-      <c r="D259" t="s">
-        <v>25</v>
-      </c>
+      <c r="D259"/>
       <c r="E259"/>
       <c r="F259"/>
-      <c r="G259"/>
+      <c r="G259" t="s">
+        <v>25</v>
+      </c>
       <c r="H259"/>
       <c r="I259"/>
       <c r="J259"/>
@@ -26971,11 +26975,11 @@
       <c r="D260"/>
       <c r="E260"/>
       <c r="F260"/>
-      <c r="G260"/>
+      <c r="G260" t="s">
+        <v>25</v>
+      </c>
       <c r="H260"/>
-      <c r="I260" t="s">
-        <v>28</v>
-      </c>
+      <c r="I260"/>
       <c r="J260"/>
       <c r="K260"/>
       <c r="L260"/>
@@ -26994,14 +26998,14 @@
       </c>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261"/>
+      <c r="D261" t="s">
+        <v>25</v>
+      </c>
       <c r="E261"/>
       <c r="F261"/>
       <c r="G261"/>
       <c r="H261"/>
-      <c r="I261" t="s">
-        <v>28</v>
-      </c>
+      <c r="I261"/>
       <c r="J261"/>
       <c r="K261"/>
       <c r="L261"/>
@@ -27018,16 +27022,16 @@
       <c r="A262" t="s">
         <v>296</v>
       </c>
-      <c r="B262" t="s">
-        <v>54</v>
-      </c>
+      <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
       <c r="E262"/>
       <c r="F262"/>
       <c r="G262"/>
       <c r="H262"/>
-      <c r="I262"/>
+      <c r="I262" t="s">
+        <v>28</v>
+      </c>
       <c r="J262"/>
       <c r="K262"/>
       <c r="L262"/>
@@ -27050,10 +27054,10 @@
       <c r="E263"/>
       <c r="F263"/>
       <c r="G263"/>
-      <c r="H263" t="s">
-        <v>54</v>
-      </c>
-      <c r="I263"/>
+      <c r="H263"/>
+      <c r="I263" t="s">
+        <v>28</v>
+      </c>
       <c r="J263"/>
       <c r="K263"/>
       <c r="L263"/>
@@ -27070,14 +27074,14 @@
       <c r="A264" t="s">
         <v>298</v>
       </c>
-      <c r="B264"/>
+      <c r="B264" t="s">
+        <v>54</v>
+      </c>
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264"/>
       <c r="F264"/>
-      <c r="G264" t="s">
-        <v>54</v>
-      </c>
+      <c r="G264"/>
       <c r="H264"/>
       <c r="I264"/>
       <c r="J264"/>
@@ -27102,15 +27106,15 @@
       <c r="E265"/>
       <c r="F265"/>
       <c r="G265"/>
-      <c r="H265"/>
+      <c r="H265" t="s">
+        <v>54</v>
+      </c>
       <c r="I265"/>
       <c r="J265"/>
       <c r="K265"/>
       <c r="L265"/>
       <c r="M265"/>
-      <c r="N265" t="s">
-        <v>87</v>
-      </c>
+      <c r="N265"/>
       <c r="O265"/>
       <c r="P265"/>
       <c r="Q265"/>
@@ -27127,11 +27131,11 @@
       <c r="D266"/>
       <c r="E266"/>
       <c r="F266"/>
-      <c r="G266"/>
+      <c r="G266" t="s">
+        <v>54</v>
+      </c>
       <c r="H266"/>
-      <c r="I266" t="s">
-        <v>28</v>
-      </c>
+      <c r="I266"/>
       <c r="J266"/>
       <c r="K266"/>
       <c r="L266"/>
@@ -27155,14 +27159,14 @@
       <c r="F267"/>
       <c r="G267"/>
       <c r="H267"/>
-      <c r="I267" t="s">
-        <v>28</v>
-      </c>
+      <c r="I267"/>
       <c r="J267"/>
       <c r="K267"/>
       <c r="L267"/>
       <c r="M267"/>
-      <c r="N267"/>
+      <c r="N267" t="s">
+        <v>87</v>
+      </c>
       <c r="O267"/>
       <c r="P267"/>
       <c r="Q267"/>
@@ -27207,14 +27211,14 @@
       <c r="F269"/>
       <c r="G269"/>
       <c r="H269"/>
-      <c r="I269"/>
+      <c r="I269" t="s">
+        <v>28</v>
+      </c>
       <c r="J269"/>
       <c r="K269"/>
       <c r="L269"/>
       <c r="M269"/>
-      <c r="N269" t="s">
-        <v>54</v>
-      </c>
+      <c r="N269"/>
       <c r="O269"/>
       <c r="P269"/>
       <c r="Q269"/>
@@ -27227,15 +27231,15 @@
         <v>304</v>
       </c>
       <c r="B270"/>
-      <c r="C270" t="s">
-        <v>25</v>
-      </c>
+      <c r="C270"/>
       <c r="D270"/>
       <c r="E270"/>
       <c r="F270"/>
       <c r="G270"/>
       <c r="H270"/>
-      <c r="I270"/>
+      <c r="I270" t="s">
+        <v>28</v>
+      </c>
       <c r="J270"/>
       <c r="K270"/>
       <c r="L270"/>
@@ -27257,16 +27261,16 @@
       <c r="D271"/>
       <c r="E271"/>
       <c r="F271"/>
-      <c r="G271" t="s">
-        <v>25</v>
-      </c>
+      <c r="G271"/>
       <c r="H271"/>
       <c r="I271"/>
       <c r="J271"/>
       <c r="K271"/>
       <c r="L271"/>
       <c r="M271"/>
-      <c r="N271"/>
+      <c r="N271" t="s">
+        <v>54</v>
+      </c>
       <c r="O271"/>
       <c r="P271"/>
       <c r="Q271"/>
@@ -27279,7 +27283,9 @@
         <v>306</v>
       </c>
       <c r="B272"/>
-      <c r="C272"/>
+      <c r="C272" t="s">
+        <v>25</v>
+      </c>
       <c r="D272"/>
       <c r="E272"/>
       <c r="F272"/>
@@ -27288,9 +27294,7 @@
       <c r="I272"/>
       <c r="J272"/>
       <c r="K272"/>
-      <c r="L272" t="s">
-        <v>28</v>
-      </c>
+      <c r="L272"/>
       <c r="M272"/>
       <c r="N272"/>
       <c r="O272"/>
@@ -27309,14 +27313,14 @@
       <c r="D273"/>
       <c r="E273"/>
       <c r="F273"/>
-      <c r="G273"/>
+      <c r="G273" t="s">
+        <v>25</v>
+      </c>
       <c r="H273"/>
       <c r="I273"/>
       <c r="J273"/>
       <c r="K273"/>
-      <c r="L273" t="s">
-        <v>25</v>
-      </c>
+      <c r="L273"/>
       <c r="M273"/>
       <c r="N273"/>
       <c r="O273"/>
@@ -27333,16 +27337,16 @@
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
-      <c r="E274" t="s">
-        <v>25</v>
-      </c>
+      <c r="E274"/>
       <c r="F274"/>
       <c r="G274"/>
       <c r="H274"/>
       <c r="I274"/>
       <c r="J274"/>
       <c r="K274"/>
-      <c r="L274"/>
+      <c r="L274" t="s">
+        <v>28</v>
+      </c>
       <c r="M274"/>
       <c r="N274"/>
       <c r="O274"/>
@@ -27361,14 +27365,14 @@
       <c r="D275"/>
       <c r="E275"/>
       <c r="F275"/>
-      <c r="G275" t="s">
-        <v>25</v>
-      </c>
+      <c r="G275"/>
       <c r="H275"/>
       <c r="I275"/>
       <c r="J275"/>
       <c r="K275"/>
-      <c r="L275"/>
+      <c r="L275" t="s">
+        <v>25</v>
+      </c>
       <c r="M275"/>
       <c r="N275"/>
       <c r="O275"/>
@@ -27385,11 +27389,11 @@
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
-      <c r="E276"/>
+      <c r="E276" t="s">
+        <v>25</v>
+      </c>
       <c r="F276"/>
-      <c r="G276" t="s">
-        <v>25</v>
-      </c>
+      <c r="G276"/>
       <c r="H276"/>
       <c r="I276"/>
       <c r="J276"/>
@@ -27413,7 +27417,9 @@
       <c r="D277"/>
       <c r="E277"/>
       <c r="F277"/>
-      <c r="G277"/>
+      <c r="G277" t="s">
+        <v>25</v>
+      </c>
       <c r="H277"/>
       <c r="I277"/>
       <c r="J277"/>
@@ -27424,9 +27430,7 @@
       <c r="O277"/>
       <c r="P277"/>
       <c r="Q277"/>
-      <c r="R277" t="s">
-        <v>25</v>
-      </c>
+      <c r="R277"/>
       <c r="S277"/>
       <c r="T277"/>
     </row>
@@ -27435,13 +27439,13 @@
         <v>312</v>
       </c>
       <c r="B278"/>
-      <c r="C278" t="s">
-        <v>28</v>
-      </c>
+      <c r="C278"/>
       <c r="D278"/>
       <c r="E278"/>
       <c r="F278"/>
-      <c r="G278"/>
+      <c r="G278" t="s">
+        <v>25</v>
+      </c>
       <c r="H278"/>
       <c r="I278"/>
       <c r="J278"/>
@@ -27471,14 +27475,14 @@
       <c r="J279"/>
       <c r="K279"/>
       <c r="L279"/>
-      <c r="M279" t="s">
-        <v>28</v>
-      </c>
+      <c r="M279"/>
       <c r="N279"/>
       <c r="O279"/>
       <c r="P279"/>
       <c r="Q279"/>
-      <c r="R279"/>
+      <c r="R279" t="s">
+        <v>25</v>
+      </c>
       <c r="S279"/>
       <c r="T279"/>
     </row>
@@ -27487,13 +27491,13 @@
         <v>314</v>
       </c>
       <c r="B280"/>
-      <c r="C280"/>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
       <c r="D280"/>
       <c r="E280"/>
       <c r="F280"/>
-      <c r="G280" t="s">
-        <v>87</v>
-      </c>
+      <c r="G280"/>
       <c r="H280"/>
       <c r="I280"/>
       <c r="J280"/>
@@ -27512,9 +27516,7 @@
       <c r="A281" t="s">
         <v>315</v>
       </c>
-      <c r="B281" t="s">
-        <v>25</v>
-      </c>
+      <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="E281"/>
@@ -27525,7 +27527,9 @@
       <c r="J281"/>
       <c r="K281"/>
       <c r="L281"/>
-      <c r="M281"/>
+      <c r="M281" t="s">
+        <v>28</v>
+      </c>
       <c r="N281"/>
       <c r="O281"/>
       <c r="P281"/>
@@ -27543,11 +27547,11 @@
       <c r="D282"/>
       <c r="E282"/>
       <c r="F282"/>
-      <c r="G282"/>
+      <c r="G282" t="s">
+        <v>87</v>
+      </c>
       <c r="H282"/>
-      <c r="I282" t="s">
-        <v>25</v>
-      </c>
+      <c r="I282"/>
       <c r="J282"/>
       <c r="K282"/>
       <c r="L282"/>
@@ -27564,7 +27568,9 @@
       <c r="A283" t="s">
         <v>317</v>
       </c>
-      <c r="B283"/>
+      <c r="B283" t="s">
+        <v>25</v>
+      </c>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283"/>
@@ -27572,9 +27578,7 @@
       <c r="G283"/>
       <c r="H283"/>
       <c r="I283"/>
-      <c r="J283" t="s">
-        <v>25</v>
-      </c>
+      <c r="J283"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
@@ -27595,11 +27599,11 @@
       <c r="D284"/>
       <c r="E284"/>
       <c r="F284"/>
-      <c r="G284" t="s">
-        <v>54</v>
-      </c>
+      <c r="G284"/>
       <c r="H284"/>
-      <c r="I284"/>
+      <c r="I284" t="s">
+        <v>25</v>
+      </c>
       <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
@@ -27618,15 +27622,15 @@
       </c>
       <c r="B285"/>
       <c r="C285"/>
-      <c r="D285" t="s">
-        <v>28</v>
-      </c>
+      <c r="D285"/>
       <c r="E285"/>
       <c r="F285"/>
       <c r="G285"/>
       <c r="H285"/>
       <c r="I285"/>
-      <c r="J285"/>
+      <c r="J285" t="s">
+        <v>25</v>
+      </c>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
@@ -27645,11 +27649,11 @@
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
-      <c r="E286" t="s">
-        <v>28</v>
-      </c>
+      <c r="E286"/>
       <c r="F286"/>
-      <c r="G286"/>
+      <c r="G286" t="s">
+        <v>54</v>
+      </c>
       <c r="H286"/>
       <c r="I286"/>
       <c r="J286"/>
@@ -27668,11 +27672,11 @@
       <c r="A287" t="s">
         <v>321</v>
       </c>
-      <c r="B287" t="s">
-        <v>54</v>
-      </c>
+      <c r="B287"/>
       <c r="C287"/>
-      <c r="D287"/>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
       <c r="E287"/>
       <c r="F287"/>
       <c r="G287"/>
@@ -27695,11 +27699,11 @@
         <v>322</v>
       </c>
       <c r="B288"/>
-      <c r="C288" t="s">
-        <v>28</v>
-      </c>
+      <c r="C288"/>
       <c r="D288"/>
-      <c r="E288"/>
+      <c r="E288" t="s">
+        <v>28</v>
+      </c>
       <c r="F288"/>
       <c r="G288"/>
       <c r="H288"/>
@@ -27720,10 +27724,10 @@
       <c r="A289" t="s">
         <v>323</v>
       </c>
-      <c r="B289"/>
-      <c r="C289" t="s">
-        <v>25</v>
-      </c>
+      <c r="B289" t="s">
+        <v>54</v>
+      </c>
+      <c r="C289"/>
       <c r="D289"/>
       <c r="E289"/>
       <c r="F289"/>
@@ -27746,10 +27750,10 @@
       <c r="A290" t="s">
         <v>324</v>
       </c>
-      <c r="B290" t="s">
-        <v>25</v>
-      </c>
-      <c r="C290"/>
+      <c r="B290"/>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
       <c r="D290"/>
       <c r="E290"/>
       <c r="F290"/>
@@ -27772,10 +27776,10 @@
       <c r="A291" t="s">
         <v>325</v>
       </c>
-      <c r="B291" t="s">
-        <v>25</v>
-      </c>
-      <c r="C291"/>
+      <c r="B291"/>
+      <c r="C291" t="s">
+        <v>25</v>
+      </c>
       <c r="D291"/>
       <c r="E291"/>
       <c r="F291"/>
@@ -27798,14 +27802,14 @@
       <c r="A292" t="s">
         <v>326</v>
       </c>
-      <c r="B292"/>
+      <c r="B292" t="s">
+        <v>25</v>
+      </c>
       <c r="C292"/>
       <c r="D292"/>
       <c r="E292"/>
       <c r="F292"/>
-      <c r="G292" t="s">
-        <v>25</v>
-      </c>
+      <c r="G292"/>
       <c r="H292"/>
       <c r="I292"/>
       <c r="J292"/>
@@ -27824,14 +27828,14 @@
       <c r="A293" t="s">
         <v>327</v>
       </c>
-      <c r="B293"/>
+      <c r="B293" t="s">
+        <v>25</v>
+      </c>
       <c r="C293"/>
       <c r="D293"/>
       <c r="E293"/>
       <c r="F293"/>
-      <c r="G293" t="s">
-        <v>25</v>
-      </c>
+      <c r="G293"/>
       <c r="H293"/>
       <c r="I293"/>
       <c r="J293"/>
@@ -27850,14 +27854,14 @@
       <c r="A294" t="s">
         <v>328</v>
       </c>
-      <c r="B294" t="s">
-        <v>87</v>
-      </c>
+      <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
       <c r="E294"/>
       <c r="F294"/>
-      <c r="G294"/>
+      <c r="G294" t="s">
+        <v>25</v>
+      </c>
       <c r="H294"/>
       <c r="I294"/>
       <c r="J294"/>
@@ -27876,14 +27880,14 @@
       <c r="A295" t="s">
         <v>329</v>
       </c>
-      <c r="B295" t="s">
-        <v>25</v>
-      </c>
+      <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
       <c r="E295"/>
       <c r="F295"/>
-      <c r="G295"/>
+      <c r="G295" t="s">
+        <v>25</v>
+      </c>
       <c r="H295"/>
       <c r="I295"/>
       <c r="J295"/>
@@ -27902,11 +27906,11 @@
       <c r="A296" t="s">
         <v>330</v>
       </c>
-      <c r="B296"/>
+      <c r="B296" t="s">
+        <v>87</v>
+      </c>
       <c r="C296"/>
-      <c r="D296" t="s">
-        <v>28</v>
-      </c>
+      <c r="D296"/>
       <c r="E296"/>
       <c r="F296"/>
       <c r="G296"/>
@@ -27928,12 +27932,12 @@
       <c r="A297" t="s">
         <v>331</v>
       </c>
-      <c r="B297"/>
+      <c r="B297" t="s">
+        <v>25</v>
+      </c>
       <c r="C297"/>
       <c r="D297"/>
-      <c r="E297" t="s">
-        <v>28</v>
-      </c>
+      <c r="E297"/>
       <c r="F297"/>
       <c r="G297"/>
       <c r="H297"/>
@@ -27954,11 +27958,11 @@
       <c r="A298" t="s">
         <v>332</v>
       </c>
-      <c r="B298" t="s">
-        <v>54</v>
-      </c>
+      <c r="B298"/>
       <c r="C298"/>
-      <c r="D298"/>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
       <c r="E298"/>
       <c r="F298"/>
       <c r="G298"/>
@@ -27981,11 +27985,11 @@
         <v>333</v>
       </c>
       <c r="B299"/>
-      <c r="C299" t="s">
-        <v>28</v>
-      </c>
+      <c r="C299"/>
       <c r="D299"/>
-      <c r="E299"/>
+      <c r="E299" t="s">
+        <v>28</v>
+      </c>
       <c r="F299"/>
       <c r="G299"/>
       <c r="H299"/>
@@ -28006,7 +28010,9 @@
       <c r="A300" t="s">
         <v>334</v>
       </c>
-      <c r="B300"/>
+      <c r="B300" t="s">
+        <v>54</v>
+      </c>
       <c r="C300"/>
       <c r="D300"/>
       <c r="E300"/>
@@ -28016,9 +28022,7 @@
       <c r="I300"/>
       <c r="J300"/>
       <c r="K300"/>
-      <c r="L300" t="s">
-        <v>25</v>
-      </c>
+      <c r="L300"/>
       <c r="M300"/>
       <c r="N300"/>
       <c r="O300"/>
@@ -28033,7 +28037,9 @@
         <v>335</v>
       </c>
       <c r="B301"/>
-      <c r="C301"/>
+      <c r="C301" t="s">
+        <v>28</v>
+      </c>
       <c r="D301"/>
       <c r="E301"/>
       <c r="F301"/>
@@ -28044,9 +28050,7 @@
       <c r="K301"/>
       <c r="L301"/>
       <c r="M301"/>
-      <c r="N301" t="s">
-        <v>28</v>
-      </c>
+      <c r="N301"/>
       <c r="O301"/>
       <c r="P301"/>
       <c r="Q301"/>
@@ -28069,7 +28073,7 @@
       <c r="J302"/>
       <c r="K302"/>
       <c r="L302" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M302"/>
       <c r="N302"/>
@@ -28094,11 +28098,11 @@
       <c r="I303"/>
       <c r="J303"/>
       <c r="K303"/>
-      <c r="L303" t="s">
-        <v>28</v>
-      </c>
+      <c r="L303"/>
       <c r="M303"/>
-      <c r="N303"/>
+      <c r="N303" t="s">
+        <v>28</v>
+      </c>
       <c r="O303"/>
       <c r="P303"/>
       <c r="Q303"/>
@@ -28110,9 +28114,7 @@
       <c r="A304" t="s">
         <v>338</v>
       </c>
-      <c r="B304" t="s">
-        <v>25</v>
-      </c>
+      <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
       <c r="E304"/>
@@ -28122,7 +28124,9 @@
       <c r="I304"/>
       <c r="J304"/>
       <c r="K304"/>
-      <c r="L304"/>
+      <c r="L304" t="s">
+        <v>28</v>
+      </c>
       <c r="M304"/>
       <c r="N304"/>
       <c r="O304"/>
@@ -28136,9 +28140,7 @@
       <c r="A305" t="s">
         <v>339</v>
       </c>
-      <c r="B305" t="s">
-        <v>25</v>
-      </c>
+      <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
       <c r="E305"/>
@@ -28148,7 +28150,9 @@
       <c r="I305"/>
       <c r="J305"/>
       <c r="K305"/>
-      <c r="L305"/>
+      <c r="L305" t="s">
+        <v>28</v>
+      </c>
       <c r="M305"/>
       <c r="N305"/>
       <c r="O305"/>
@@ -28162,7 +28166,9 @@
       <c r="A306" t="s">
         <v>340</v>
       </c>
-      <c r="B306"/>
+      <c r="B306" t="s">
+        <v>25</v>
+      </c>
       <c r="C306"/>
       <c r="D306"/>
       <c r="E306"/>
@@ -28174,9 +28180,7 @@
       <c r="K306"/>
       <c r="L306"/>
       <c r="M306"/>
-      <c r="N306" t="s">
-        <v>25</v>
-      </c>
+      <c r="N306"/>
       <c r="O306"/>
       <c r="P306"/>
       <c r="Q306"/>
@@ -28214,9 +28218,7 @@
       <c r="A308" t="s">
         <v>342</v>
       </c>
-      <c r="B308" t="s">
-        <v>25</v>
-      </c>
+      <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
       <c r="E308"/>
@@ -28228,7 +28230,9 @@
       <c r="K308"/>
       <c r="L308"/>
       <c r="M308"/>
-      <c r="N308"/>
+      <c r="N308" t="s">
+        <v>25</v>
+      </c>
       <c r="O308"/>
       <c r="P308"/>
       <c r="Q308"/>
@@ -28266,12 +28270,12 @@
       <c r="A310" t="s">
         <v>344</v>
       </c>
-      <c r="B310"/>
+      <c r="B310" t="s">
+        <v>25</v>
+      </c>
       <c r="C310"/>
       <c r="D310"/>
-      <c r="E310" t="s">
-        <v>25</v>
-      </c>
+      <c r="E310"/>
       <c r="F310"/>
       <c r="G310"/>
       <c r="H310"/>
@@ -28292,7 +28296,9 @@
       <c r="A311" t="s">
         <v>345</v>
       </c>
-      <c r="B311"/>
+      <c r="B311" t="s">
+        <v>25</v>
+      </c>
       <c r="C311"/>
       <c r="D311"/>
       <c r="E311"/>
@@ -28300,9 +28306,7 @@
       <c r="G311"/>
       <c r="H311"/>
       <c r="I311"/>
-      <c r="J311" t="s">
-        <v>28</v>
-      </c>
+      <c r="J311"/>
       <c r="K311"/>
       <c r="L311"/>
       <c r="M311"/>
@@ -28352,12 +28356,12 @@
       <c r="G313"/>
       <c r="H313"/>
       <c r="I313"/>
-      <c r="J313"/>
+      <c r="J313" t="s">
+        <v>28</v>
+      </c>
       <c r="K313"/>
       <c r="L313"/>
-      <c r="M313" t="s">
-        <v>25</v>
-      </c>
+      <c r="M313"/>
       <c r="N313"/>
       <c r="O313"/>
       <c r="P313"/>
@@ -28372,10 +28376,10 @@
       </c>
       <c r="B314"/>
       <c r="C314"/>
-      <c r="D314" t="s">
-        <v>25</v>
-      </c>
-      <c r="E314"/>
+      <c r="D314"/>
+      <c r="E314" t="s">
+        <v>25</v>
+      </c>
       <c r="F314"/>
       <c r="G314"/>
       <c r="H314"/>
@@ -28397,9 +28401,7 @@
         <v>349</v>
       </c>
       <c r="B315"/>
-      <c r="C315" t="s">
-        <v>25</v>
-      </c>
+      <c r="C315"/>
       <c r="D315"/>
       <c r="E315"/>
       <c r="F315"/>
@@ -28409,7 +28411,9 @@
       <c r="J315"/>
       <c r="K315"/>
       <c r="L315"/>
-      <c r="M315"/>
+      <c r="M315" t="s">
+        <v>25</v>
+      </c>
       <c r="N315"/>
       <c r="O315"/>
       <c r="P315"/>
@@ -28423,10 +28427,10 @@
         <v>350</v>
       </c>
       <c r="B316"/>
-      <c r="C316" t="s">
-        <v>25</v>
-      </c>
-      <c r="D316"/>
+      <c r="C316"/>
+      <c r="D316" t="s">
+        <v>25</v>
+      </c>
       <c r="E316"/>
       <c r="F316"/>
       <c r="G316"/>
@@ -28448,10 +28452,10 @@
       <c r="A317" t="s">
         <v>351</v>
       </c>
-      <c r="B317" t="s">
-        <v>25</v>
-      </c>
-      <c r="C317"/>
+      <c r="B317"/>
+      <c r="C317" t="s">
+        <v>25</v>
+      </c>
       <c r="D317"/>
       <c r="E317"/>
       <c r="F317"/>
@@ -28500,10 +28504,10 @@
       <c r="A319" t="s">
         <v>353</v>
       </c>
-      <c r="B319"/>
-      <c r="C319" t="s">
-        <v>25</v>
-      </c>
+      <c r="B319" t="s">
+        <v>25</v>
+      </c>
+      <c r="C319"/>
       <c r="D319"/>
       <c r="E319"/>
       <c r="F319"/>
@@ -28553,13 +28557,13 @@
         <v>355</v>
       </c>
       <c r="B321"/>
-      <c r="C321"/>
+      <c r="C321" t="s">
+        <v>25</v>
+      </c>
       <c r="D321"/>
       <c r="E321"/>
       <c r="F321"/>
-      <c r="G321" t="s">
-        <v>25</v>
-      </c>
+      <c r="G321"/>
       <c r="H321"/>
       <c r="I321"/>
       <c r="J321"/>
@@ -28583,11 +28587,11 @@
       <c r="D322"/>
       <c r="E322"/>
       <c r="F322"/>
-      <c r="G322"/>
+      <c r="G322" t="s">
+        <v>25</v>
+      </c>
       <c r="H322"/>
-      <c r="I322" t="s">
-        <v>28</v>
-      </c>
+      <c r="I322"/>
       <c r="J322"/>
       <c r="K322"/>
       <c r="L322"/>
@@ -28611,13 +28615,13 @@
       <c r="F323"/>
       <c r="G323"/>
       <c r="H323"/>
-      <c r="I323"/>
+      <c r="I323" t="s">
+        <v>28</v>
+      </c>
       <c r="J323"/>
       <c r="K323"/>
       <c r="L323"/>
-      <c r="M323" t="s">
-        <v>25</v>
-      </c>
+      <c r="M323"/>
       <c r="N323"/>
       <c r="O323"/>
       <c r="P323"/>
@@ -28630,9 +28634,7 @@
       <c r="A324" t="s">
         <v>358</v>
       </c>
-      <c r="B324" t="s">
-        <v>25</v>
-      </c>
+      <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324"/>
@@ -28643,7 +28645,9 @@
       <c r="J324"/>
       <c r="K324"/>
       <c r="L324"/>
-      <c r="M324"/>
+      <c r="M324" t="s">
+        <v>25</v>
+      </c>
       <c r="N324"/>
       <c r="O324"/>
       <c r="P324"/>
@@ -28656,10 +28660,10 @@
       <c r="A325" t="s">
         <v>359</v>
       </c>
-      <c r="B325"/>
-      <c r="C325" t="s">
-        <v>25</v>
-      </c>
+      <c r="B325" t="s">
+        <v>25</v>
+      </c>
+      <c r="C325"/>
       <c r="D325"/>
       <c r="E325"/>
       <c r="F325"/>
@@ -28709,10 +28713,10 @@
         <v>361</v>
       </c>
       <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327" t="s">
-        <v>25</v>
-      </c>
+      <c r="C327" t="s">
+        <v>25</v>
+      </c>
+      <c r="D327"/>
       <c r="E327"/>
       <c r="F327"/>
       <c r="G327"/>
@@ -28734,11 +28738,11 @@
       <c r="A328" t="s">
         <v>362</v>
       </c>
-      <c r="B328" t="s">
-        <v>25</v>
-      </c>
+      <c r="B328"/>
       <c r="C328"/>
-      <c r="D328"/>
+      <c r="D328" t="s">
+        <v>25</v>
+      </c>
       <c r="E328"/>
       <c r="F328"/>
       <c r="G328"/>
@@ -28760,14 +28764,14 @@
       <c r="A329" t="s">
         <v>363</v>
       </c>
-      <c r="B329"/>
+      <c r="B329" t="s">
+        <v>25</v>
+      </c>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
       <c r="F329"/>
-      <c r="G329" t="s">
-        <v>25</v>
-      </c>
+      <c r="G329"/>
       <c r="H329"/>
       <c r="I329"/>
       <c r="J329"/>
@@ -28791,15 +28795,15 @@
       <c r="D330"/>
       <c r="E330"/>
       <c r="F330"/>
-      <c r="G330"/>
+      <c r="G330" t="s">
+        <v>25</v>
+      </c>
       <c r="H330"/>
       <c r="I330"/>
       <c r="J330"/>
       <c r="K330"/>
       <c r="L330"/>
-      <c r="M330" t="s">
-        <v>25</v>
-      </c>
+      <c r="M330"/>
       <c r="N330"/>
       <c r="O330"/>
       <c r="P330"/>
@@ -28819,13 +28823,13 @@
       <c r="F331"/>
       <c r="G331"/>
       <c r="H331"/>
-      <c r="I331" t="s">
-        <v>25</v>
-      </c>
+      <c r="I331"/>
       <c r="J331"/>
       <c r="K331"/>
       <c r="L331"/>
-      <c r="M331"/>
+      <c r="M331" t="s">
+        <v>25</v>
+      </c>
       <c r="N331"/>
       <c r="O331"/>
       <c r="P331"/>
@@ -28871,14 +28875,14 @@
       <c r="F333"/>
       <c r="G333"/>
       <c r="H333"/>
-      <c r="I333"/>
+      <c r="I333" t="s">
+        <v>25</v>
+      </c>
       <c r="J333"/>
       <c r="K333"/>
       <c r="L333"/>
       <c r="M333"/>
-      <c r="N333" t="s">
-        <v>25</v>
-      </c>
+      <c r="N333"/>
       <c r="O333"/>
       <c r="P333"/>
       <c r="Q333"/>
@@ -28921,16 +28925,16 @@
       <c r="D335"/>
       <c r="E335"/>
       <c r="F335"/>
-      <c r="G335" t="s">
-        <v>25</v>
-      </c>
+      <c r="G335"/>
       <c r="H335"/>
       <c r="I335"/>
       <c r="J335"/>
       <c r="K335"/>
       <c r="L335"/>
       <c r="M335"/>
-      <c r="N335"/>
+      <c r="N335" t="s">
+        <v>25</v>
+      </c>
       <c r="O335"/>
       <c r="P335"/>
       <c r="Q335"/>
@@ -28945,11 +28949,11 @@
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
-      <c r="E336" t="s">
-        <v>25</v>
-      </c>
+      <c r="E336"/>
       <c r="F336"/>
-      <c r="G336"/>
+      <c r="G336" t="s">
+        <v>25</v>
+      </c>
       <c r="H336"/>
       <c r="I336"/>
       <c r="J336"/>
@@ -28971,11 +28975,11 @@
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
-      <c r="E337"/>
+      <c r="E337" t="s">
+        <v>25</v>
+      </c>
       <c r="F337"/>
-      <c r="G337" t="s">
-        <v>25</v>
-      </c>
+      <c r="G337"/>
       <c r="H337"/>
       <c r="I337"/>
       <c r="J337"/>
@@ -28997,11 +29001,11 @@
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
-      <c r="E338" t="s">
-        <v>25</v>
-      </c>
+      <c r="E338"/>
       <c r="F338"/>
-      <c r="G338"/>
+      <c r="G338" t="s">
+        <v>25</v>
+      </c>
       <c r="H338"/>
       <c r="I338"/>
       <c r="J338"/>
@@ -29020,12 +29024,12 @@
       <c r="A339" t="s">
         <v>373</v>
       </c>
-      <c r="B339" t="s">
-        <v>25</v>
-      </c>
+      <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
-      <c r="E339"/>
+      <c r="E339" t="s">
+        <v>25</v>
+      </c>
       <c r="F339"/>
       <c r="G339"/>
       <c r="H339"/>
@@ -29046,16 +29050,16 @@
       <c r="A340" t="s">
         <v>374</v>
       </c>
-      <c r="B340"/>
+      <c r="B340" t="s">
+        <v>25</v>
+      </c>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
       <c r="F340"/>
       <c r="G340"/>
       <c r="H340"/>
-      <c r="I340" t="s">
-        <v>28</v>
-      </c>
+      <c r="I340"/>
       <c r="J340"/>
       <c r="K340"/>
       <c r="L340"/>
@@ -29072,16 +29076,16 @@
       <c r="A341" t="s">
         <v>375</v>
       </c>
-      <c r="B341" t="s">
-        <v>25</v>
-      </c>
+      <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
       <c r="F341"/>
       <c r="G341"/>
       <c r="H341"/>
-      <c r="I341"/>
+      <c r="I341" t="s">
+        <v>28</v>
+      </c>
       <c r="J341"/>
       <c r="K341"/>
       <c r="L341"/>
@@ -29124,7 +29128,9 @@
       <c r="A343" t="s">
         <v>377</v>
       </c>
-      <c r="B343"/>
+      <c r="B343" t="s">
+        <v>25</v>
+      </c>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
@@ -29134,9 +29140,7 @@
       <c r="I343"/>
       <c r="J343"/>
       <c r="K343"/>
-      <c r="L343" t="s">
-        <v>28</v>
-      </c>
+      <c r="L343"/>
       <c r="M343"/>
       <c r="N343"/>
       <c r="O343"/>
@@ -29157,12 +29161,12 @@
       <c r="F344"/>
       <c r="G344"/>
       <c r="H344"/>
-      <c r="I344" t="s">
-        <v>25</v>
-      </c>
+      <c r="I344"/>
       <c r="J344"/>
       <c r="K344"/>
-      <c r="L344"/>
+      <c r="L344" t="s">
+        <v>28</v>
+      </c>
       <c r="M344"/>
       <c r="N344"/>
       <c r="O344"/>
@@ -29176,16 +29180,16 @@
       <c r="A345" t="s">
         <v>379</v>
       </c>
-      <c r="B345" t="s">
-        <v>25</v>
-      </c>
+      <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
       <c r="F345"/>
       <c r="G345"/>
       <c r="H345"/>
-      <c r="I345"/>
+      <c r="I345" t="s">
+        <v>25</v>
+      </c>
       <c r="J345"/>
       <c r="K345"/>
       <c r="L345"/>
@@ -29202,12 +29206,12 @@
       <c r="A346" t="s">
         <v>380</v>
       </c>
-      <c r="B346"/>
+      <c r="B346" t="s">
+        <v>25</v>
+      </c>
       <c r="C346"/>
       <c r="D346"/>
-      <c r="E346" t="s">
-        <v>25</v>
-      </c>
+      <c r="E346"/>
       <c r="F346"/>
       <c r="G346"/>
       <c r="H346"/>
@@ -29231,7 +29235,9 @@
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
-      <c r="E347"/>
+      <c r="E347" t="s">
+        <v>25</v>
+      </c>
       <c r="F347"/>
       <c r="G347"/>
       <c r="H347"/>
@@ -29240,9 +29246,7 @@
       <c r="K347"/>
       <c r="L347"/>
       <c r="M347"/>
-      <c r="N347" t="s">
-        <v>87</v>
-      </c>
+      <c r="N347"/>
       <c r="O347"/>
       <c r="P347"/>
       <c r="Q347"/>
@@ -29267,7 +29271,7 @@
       <c r="L348"/>
       <c r="M348"/>
       <c r="N348" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O348"/>
       <c r="P348"/>
@@ -29280,9 +29284,7 @@
       <c r="A349" t="s">
         <v>383</v>
       </c>
-      <c r="B349" t="s">
-        <v>25</v>
-      </c>
+      <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
       <c r="E349"/>
@@ -29294,7 +29296,9 @@
       <c r="K349"/>
       <c r="L349"/>
       <c r="M349"/>
-      <c r="N349"/>
+      <c r="N349" t="s">
+        <v>28</v>
+      </c>
       <c r="O349"/>
       <c r="P349"/>
       <c r="Q349"/>
@@ -29306,14 +29310,14 @@
       <c r="A350" t="s">
         <v>384</v>
       </c>
-      <c r="B350"/>
+      <c r="B350" t="s">
+        <v>25</v>
+      </c>
       <c r="C350"/>
       <c r="D350"/>
       <c r="E350"/>
       <c r="F350"/>
-      <c r="G350" t="s">
-        <v>25</v>
-      </c>
+      <c r="G350"/>
       <c r="H350"/>
       <c r="I350"/>
       <c r="J350"/>
@@ -29389,7 +29393,9 @@
       <c r="D353"/>
       <c r="E353"/>
       <c r="F353"/>
-      <c r="G353"/>
+      <c r="G353" t="s">
+        <v>25</v>
+      </c>
       <c r="H353"/>
       <c r="I353"/>
       <c r="J353"/>
@@ -29397,9 +29403,7 @@
       <c r="L353"/>
       <c r="M353"/>
       <c r="N353"/>
-      <c r="O353" t="s">
-        <v>28</v>
-      </c>
+      <c r="O353"/>
       <c r="P353"/>
       <c r="Q353"/>
       <c r="R353"/>
@@ -29419,13 +29423,13 @@
       <c r="H354"/>
       <c r="I354"/>
       <c r="J354"/>
-      <c r="K354" t="s">
-        <v>28</v>
-      </c>
+      <c r="K354"/>
       <c r="L354"/>
       <c r="M354"/>
       <c r="N354"/>
-      <c r="O354"/>
+      <c r="O354" t="s">
+        <v>28</v>
+      </c>
       <c r="P354"/>
       <c r="Q354"/>
       <c r="R354"/>
@@ -29436,9 +29440,7 @@
       <c r="A355" t="s">
         <v>389</v>
       </c>
-      <c r="B355" t="s">
-        <v>25</v>
-      </c>
+      <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
       <c r="E355"/>
@@ -29447,7 +29449,9 @@
       <c r="H355"/>
       <c r="I355"/>
       <c r="J355"/>
-      <c r="K355"/>
+      <c r="K355" t="s">
+        <v>28</v>
+      </c>
       <c r="L355"/>
       <c r="M355"/>
       <c r="N355"/>
@@ -29488,7 +29492,9 @@
       <c r="A357" t="s">
         <v>391</v>
       </c>
-      <c r="B357"/>
+      <c r="B357" t="s">
+        <v>25</v>
+      </c>
       <c r="C357"/>
       <c r="D357"/>
       <c r="E357"/>
@@ -29499,9 +29505,7 @@
       <c r="J357"/>
       <c r="K357"/>
       <c r="L357"/>
-      <c r="M357" t="s">
-        <v>87</v>
-      </c>
+      <c r="M357"/>
       <c r="N357"/>
       <c r="O357"/>
       <c r="P357"/>
@@ -29525,12 +29529,12 @@
       <c r="J358"/>
       <c r="K358"/>
       <c r="L358"/>
-      <c r="M358"/>
+      <c r="M358" t="s">
+        <v>87</v>
+      </c>
       <c r="N358"/>
       <c r="O358"/>
-      <c r="P358" t="s">
-        <v>25</v>
-      </c>
+      <c r="P358"/>
       <c r="Q358"/>
       <c r="R358"/>
       <c r="S358"/>
@@ -29549,14 +29553,14 @@
       <c r="H359"/>
       <c r="I359"/>
       <c r="J359"/>
-      <c r="K359" t="s">
-        <v>25</v>
-      </c>
+      <c r="K359"/>
       <c r="L359"/>
       <c r="M359"/>
       <c r="N359"/>
       <c r="O359"/>
-      <c r="P359"/>
+      <c r="P359" t="s">
+        <v>25</v>
+      </c>
       <c r="Q359"/>
       <c r="R359"/>
       <c r="S359"/>
@@ -29573,11 +29577,11 @@
       <c r="F360"/>
       <c r="G360"/>
       <c r="H360"/>
-      <c r="I360" t="s">
-        <v>25</v>
-      </c>
+      <c r="I360"/>
       <c r="J360"/>
-      <c r="K360"/>
+      <c r="K360" t="s">
+        <v>25</v>
+      </c>
       <c r="L360"/>
       <c r="M360"/>
       <c r="N360"/>
@@ -29599,14 +29603,14 @@
       <c r="F361"/>
       <c r="G361"/>
       <c r="H361"/>
-      <c r="I361"/>
+      <c r="I361" t="s">
+        <v>25</v>
+      </c>
       <c r="J361"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
-      <c r="N361" t="s">
-        <v>25</v>
-      </c>
+      <c r="N361"/>
       <c r="O361"/>
       <c r="P361"/>
       <c r="Q361"/>
@@ -29629,10 +29633,10 @@
       <c r="J362"/>
       <c r="K362"/>
       <c r="L362"/>
-      <c r="M362" t="s">
-        <v>25</v>
-      </c>
-      <c r="N362"/>
+      <c r="M362"/>
+      <c r="N362" t="s">
+        <v>25</v>
+      </c>
       <c r="O362"/>
       <c r="P362"/>
       <c r="Q362"/>
@@ -29652,12 +29656,12 @@
       <c r="G363"/>
       <c r="H363"/>
       <c r="I363"/>
-      <c r="J363" t="s">
-        <v>25</v>
-      </c>
+      <c r="J363"/>
       <c r="K363"/>
       <c r="L363"/>
-      <c r="M363"/>
+      <c r="M363" t="s">
+        <v>25</v>
+      </c>
       <c r="N363"/>
       <c r="O363"/>
       <c r="P363"/>
@@ -29673,14 +29677,14 @@
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364"/>
-      <c r="E364" t="s">
-        <v>25</v>
-      </c>
+      <c r="E364"/>
       <c r="F364"/>
       <c r="G364"/>
       <c r="H364"/>
       <c r="I364"/>
-      <c r="J364"/>
+      <c r="J364" t="s">
+        <v>25</v>
+      </c>
       <c r="K364"/>
       <c r="L364"/>
       <c r="M364"/>
@@ -29699,11 +29703,11 @@
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
-      <c r="E365"/>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
       <c r="F365"/>
-      <c r="G365" t="s">
-        <v>25</v>
-      </c>
+      <c r="G365"/>
       <c r="H365"/>
       <c r="I365"/>
       <c r="J365"/>
@@ -29722,14 +29726,14 @@
       <c r="A366" t="s">
         <v>400</v>
       </c>
-      <c r="B366" t="s">
-        <v>25</v>
-      </c>
+      <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
       <c r="E366"/>
       <c r="F366"/>
-      <c r="G366"/>
+      <c r="G366" t="s">
+        <v>25</v>
+      </c>
       <c r="H366"/>
       <c r="I366"/>
       <c r="J366"/>
@@ -29748,16 +29752,16 @@
       <c r="A367" t="s">
         <v>401</v>
       </c>
-      <c r="B367"/>
+      <c r="B367" t="s">
+        <v>25</v>
+      </c>
       <c r="C367"/>
       <c r="D367"/>
       <c r="E367"/>
       <c r="F367"/>
       <c r="G367"/>
       <c r="H367"/>
-      <c r="I367" t="s">
-        <v>25</v>
-      </c>
+      <c r="I367"/>
       <c r="J367"/>
       <c r="K367"/>
       <c r="L367"/>
@@ -29774,16 +29778,16 @@
       <c r="A368" t="s">
         <v>402</v>
       </c>
-      <c r="B368" t="s">
-        <v>25</v>
-      </c>
+      <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
       <c r="E368"/>
       <c r="F368"/>
       <c r="G368"/>
       <c r="H368"/>
-      <c r="I368"/>
+      <c r="I368" t="s">
+        <v>25</v>
+      </c>
       <c r="J368"/>
       <c r="K368"/>
       <c r="L368"/>
